--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B2830B-CEC9-467B-A0D7-C5F77253AE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD406744-8F7E-409E-9DC3-2ACF34EB1ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="169">
   <si>
     <t>setting_name</t>
   </si>
@@ -243,12 +243,6 @@
     <t>PREGNANCIES</t>
   </si>
   <si>
-    <t>Full information on pregnancies in CS-BCG</t>
-  </si>
-  <si>
-    <t>Informações completas sobre gravidez em CS-BCG</t>
-  </si>
-  <si>
     <t>NVNMAB</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>Inclusion</t>
   </si>
   <si>
-    <t>This is only to keep track of variables</t>
-  </si>
-  <si>
     <t>string_token</t>
   </si>
   <si>
@@ -298,6 +289,258 @@
   </si>
   <si>
     <t>VISNO</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registration of new pregnancy&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registro de nova gravidez&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>You are about to register a new pregnancy in:</t>
+  </si>
+  <si>
+    <t>Você está prestes a registrar uma nova gravidez em:</t>
+  </si>
+  <si>
+    <t>Region: {{data.REGNOME}}</t>
+  </si>
+  <si>
+    <t>Região: {{data.REGNOME}}</t>
+  </si>
+  <si>
+    <t>Health centre area: {{data.HCNOME}}</t>
+  </si>
+  <si>
+    <t>Área sanitárias: {{data.HCNOME}}</t>
+  </si>
+  <si>
+    <t>Subarea: {{data.SUBAREANOME}}</t>
+  </si>
+  <si>
+    <t>Village: {{data.TABNOME}}</t>
+  </si>
+  <si>
+    <t>Tabanca: {{data.TABNOME}}</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Morança</t>
+  </si>
+  <si>
+    <t>Explanation of the study:</t>
+  </si>
+  <si>
+    <t>Explicação do estudo:</t>
+  </si>
+  <si>
+    <t>Bandim Health Project is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to follow your pregnancy until the moment of delivery and your child within the first months.</t>
+  </si>
+  <si>
+    <t>O Projeto Saúde Bandim está realizando um estudo de acompanhamento sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez até o momento do parto e seu filho nos primeiros meses.</t>
+  </si>
+  <si>
+    <t>This study is to assess the effects of how vaccines are provided at the health centers.</t>
+  </si>
+  <si>
+    <t>O objetivo deste estudo é avaliar os efeitos de como as vacinas são fornecidas nos centros de saúde.</t>
+  </si>
+  <si>
+    <t>All information collected here will be used for the study only and will be kept confidential.</t>
+  </si>
+  <si>
+    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas em sigilo.</t>
+  </si>
+  <si>
+    <t>If you do not want to participate, you and your child will continue to be treated in the same way as others who have accepted.</t>
+  </si>
+  <si>
+    <t>Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram.</t>
+  </si>
+  <si>
+    <t>If you accept now and later do not want to continue, you can withdraw your consent.</t>
+  </si>
+  <si>
+    <t>Se você aceitar agora e depois não quiser continuar, pode retirar seu consentimento.</t>
+  </si>
+  <si>
+    <t>If you have any questions about this work later, you can contact us by phone: 96016462/955946796</t>
+  </si>
+  <si>
+    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 96016462/955946796</t>
+  </si>
+  <si>
+    <t>Do you have any questions now?</t>
+  </si>
+  <si>
+    <t>Você tem alguma pergunta agora?</t>
+  </si>
+  <si>
+    <t>YesNo</t>
+  </si>
+  <si>
+    <t>Do you accept that you and your future child will participate?</t>
+  </si>
+  <si>
+    <t>Você aceita que você e seu futuro filho participem?</t>
+  </si>
+  <si>
+    <t>Date of registration</t>
+  </si>
+  <si>
+    <t>Data de registro</t>
+  </si>
+  <si>
+    <t>not(adate.hasUncertainty(data("REGDIA"))) &amp;&amp; data("REGDIA") != null &amp;&amp; adate.ageInYears(data("REGDIA")) != -9999 &amp;&amp; adate.ageInYears(data("REGDIA")) &lt; 2019</t>
+  </si>
+  <si>
+    <t>Is the pregnancy already registered by the CHW?</t>
+  </si>
+  <si>
+    <t>A gravidez já é registrada pelo ASC?</t>
+  </si>
+  <si>
+    <t>Name of woman</t>
+  </si>
+  <si>
+    <t>Nome de mulher</t>
+  </si>
+  <si>
+    <t>data("CICATRIZMAE") != null || data("ESTADOMUL") != 1</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status of woman</t>
+  </si>
+  <si>
+    <t>Estado de mulher</t>
+  </si>
+  <si>
+    <t>Age of the woman</t>
+  </si>
+  <si>
+    <t>Idade da mulher</t>
+  </si>
+  <si>
+    <t>data("IDADE") &gt;=9 &amp;&amp; data("IDADE") &lt;100</t>
+  </si>
+  <si>
+    <t>Must be between 10 and 100.</t>
+  </si>
+  <si>
+    <t>Deve estar entre 10 e 100.</t>
+  </si>
+  <si>
+    <t>Highest level of schooling finished</t>
+  </si>
+  <si>
+    <t>Maior nível de escolaridade concluído</t>
+  </si>
+  <si>
+    <t>(data("ESCO") &gt;=0 &amp;&amp; data("ESCO") &lt;20) || data("ESCO") == 33</t>
+  </si>
+  <si>
+    <t>If schooling is unknown write "33"</t>
+  </si>
+  <si>
+    <t>Se a escolaridade for desconhecida, coloque "33"</t>
+  </si>
+  <si>
+    <t>Must be greater or equal to 0. If unknown 33.</t>
+  </si>
+  <si>
+    <t>Deve ser maior ou igual a 0. Se desconhecido, 33.</t>
+  </si>
+  <si>
+    <t>Number of previous births</t>
+  </si>
+  <si>
+    <t>Número de nascimentos anteriores</t>
+  </si>
+  <si>
+    <t>(data("PARITY") &gt;=0 &amp;&amp; data("PARITY") &lt;20) || data("PARITY") == 33</t>
+  </si>
+  <si>
+    <t>If number of previous births is unknown write "33"</t>
+  </si>
+  <si>
+    <t>Se o número de nascimentos anteriores for desconhecido, escreva "33"</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>data("ESTADOMUL") == "1"</t>
+  </si>
+  <si>
+    <t>YesNoDontknow</t>
+  </si>
+  <si>
+    <t>Does the woman have a scar from the BCG-vaccine?</t>
+  </si>
+  <si>
+    <t>A mulher tem uma cicatriz da vacina BCG?</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>The questionnaire is now finished.</t>
+  </si>
+  <si>
+    <t>O questionário está concluído.</t>
+  </si>
+  <si>
+    <t>Thank you for your time.</t>
+  </si>
+  <si>
+    <t>Obrigado pelo seu tempo.</t>
+  </si>
+  <si>
+    <t>Inclusion to CS-BCG</t>
+  </si>
+  <si>
+    <t>Inclusão no CS-BCG</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Ausente</t>
+  </si>
+  <si>
+    <t>Traveling</t>
+  </si>
+  <si>
+    <t>Viagem</t>
   </si>
 </sst>
 </file>
@@ -369,12 +612,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -401,7 +650,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,8 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -432,7 +679,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -783,10 +1030,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,106 +1073,617 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="41" style="15" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="16" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>79</v>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" t="s">
+        <v>137</v>
+      </c>
+      <c r="N36" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>142</v>
+      </c>
+      <c r="L37" t="s">
+        <v>143</v>
+      </c>
+      <c r="M37" t="s">
+        <v>144</v>
+      </c>
+      <c r="N37" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" t="s">
+        <v>149</v>
+      </c>
+      <c r="K39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -941,7 +1699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,64 +1725,132 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8"/>
+      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -1114,7 +1940,7 @@
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -1251,229 +2077,229 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="21"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="21"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
-      <c r="B74" s="21"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="23"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="23"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="21"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
-      <c r="B79" s="21"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="17"/>
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
-      <c r="B80" s="21"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
-      <c r="B81" s="21"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="17"/>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
-      <c r="B82" s="21"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
-      <c r="B83" s="21"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="17"/>
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
-      <c r="B84" s="21"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="21"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="17"/>
       <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
-      <c r="B86" s="21"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
     </row>
@@ -1503,13 +2329,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
-      <c r="B91" s="21"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="17"/>
       <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
-      <c r="B92" s="21"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
     </row>
@@ -1527,7 +2353,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
-      <c r="B95" s="21"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="17"/>
       <c r="D95" s="16"/>
     </row>
@@ -1551,7 +2377,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="21"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="17"/>
       <c r="D99" s="16"/>
     </row>
@@ -1575,7 +2401,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
-      <c r="B103" s="21"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="17"/>
       <c r="D103" s="16"/>
     </row>
@@ -1605,7 +2431,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
-      <c r="B108" s="21"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="17"/>
       <c r="D108" s="16"/>
     </row>
@@ -1635,7 +2461,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
-      <c r="B113" s="21"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
     </row>
@@ -1782,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -1965,7 +2791,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -1997,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -2062,7 +2888,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -2125,7 +2951,7 @@
     </row>
     <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -2134,12 +2960,12 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -2150,7 +2976,7 @@
     </row>
     <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
@@ -2161,7 +2987,7 @@
     </row>
     <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -2172,7 +2998,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -2183,7 +3009,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
@@ -2216,24 +3042,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD406744-8F7E-409E-9DC3-2ACF34EB1ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39DD820-0BF7-454C-8F06-8C2B5F883D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="180">
   <si>
     <t>setting_name</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Nova criança</t>
   </si>
   <si>
-    <t>DATASAI</t>
-  </si>
-  <si>
     <t>VISNO</t>
   </si>
   <si>
@@ -441,15 +438,6 @@
     <t>Maior nível de escolaridade concluído</t>
   </si>
   <si>
-    <t>(data("ESCO") &gt;=0 &amp;&amp; data("ESCO") &lt;20) || data("ESCO") == 33</t>
-  </si>
-  <si>
-    <t>If schooling is unknown write "33"</t>
-  </si>
-  <si>
-    <t>Se a escolaridade for desconhecida, coloque "33"</t>
-  </si>
-  <si>
     <t>Must be greater or equal to 0. If unknown 33.</t>
   </si>
   <si>
@@ -541,6 +529,51 @@
   </si>
   <si>
     <t>Viagem</t>
+  </si>
+  <si>
+    <t>data("CONSENT") ==  "1"</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>0-3 years</t>
+  </si>
+  <si>
+    <t>4-6 years</t>
+  </si>
+  <si>
+    <t>7-9 years</t>
+  </si>
+  <si>
+    <t>10-12 years</t>
+  </si>
+  <si>
+    <t>University / other</t>
+  </si>
+  <si>
+    <t>0-3 anos</t>
+  </si>
+  <si>
+    <t>4-6 anos</t>
+  </si>
+  <si>
+    <t>7-9 anos</t>
+  </si>
+  <si>
+    <t>10-12 anos</t>
+  </si>
+  <si>
+    <t>Universidade / outro</t>
+  </si>
+  <si>
+    <t>LOCPAR</t>
+  </si>
+  <si>
+    <t>PARTAB</t>
+  </si>
+  <si>
+    <t>PARHCHOSP</t>
   </si>
 </sst>
 </file>
@@ -650,7 +683,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -666,8 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1030,10 +1061,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,11 +1104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,10 +1194,10 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1174,10 +1205,10 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
         <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1185,10 +1216,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
         <v>89</v>
-      </c>
-      <c r="H5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1196,21 +1227,21 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
         <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>93</v>
+      <c r="G7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1218,10 +1249,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
         <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1232,10 +1263,10 @@
         <v>51</v>
       </c>
       <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
         <v>96</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1256,290 +1287,266 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
         <v>85</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>120</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
+      <c r="B15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="G19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>130</v>
-      </c>
-      <c r="N35" t="s">
-        <v>131</v>
-      </c>
-      <c r="O35" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -1547,117 +1554,120 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>135</v>
-      </c>
-      <c r="L36" t="s">
-        <v>136</v>
-      </c>
-      <c r="M36" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N36" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
-      <c r="K37" t="s">
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" t="s">
+        <v>139</v>
+      </c>
+      <c r="M38" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
         <v>142</v>
       </c>
-      <c r="L37" t="s">
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
         <v>143</v>
       </c>
-      <c r="M37" t="s">
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
         <v>144</v>
       </c>
-      <c r="N37" t="s">
-        <v>138</v>
-      </c>
-      <c r="O37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="H40" t="s">
         <v>145</v>
       </c>
-      <c r="C38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>150</v>
+      <c r="K40" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -1665,10 +1675,10 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -1676,15 +1686,31 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1695,11 +1721,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,32 +1752,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,47 +1786,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,709 +1835,751 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A15" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="16"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="16"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="16"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="16"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="16"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="16"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="16"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="16"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="16"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="16"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="16"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="16"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="16"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="16"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="16"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="16"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="16"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="16"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="16"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="16"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="16"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="16"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="16"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="16"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="16"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="16"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="16"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="16"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="16"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="16"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="16"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="16"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2526,7 +2594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,11 +2674,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,7 +2859,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -2915,7 +2983,7 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2947,7 +3015,7 @@
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2965,10 +3033,10 @@
     </row>
     <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2976,7 +3044,7 @@
     </row>
     <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
@@ -2987,7 +3055,7 @@
     </row>
     <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -2996,9 +3064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -3009,12 +3077,34 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="b">
+      <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39DD820-0BF7-454C-8F06-8C2B5F883D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C765671-3AB9-4F16-AFE4-DF1BDCC1E34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
   <si>
     <t>setting_name</t>
   </si>
@@ -300,27 +300,6 @@
     <t>Você está prestes a registrar uma nova gravidez em:</t>
   </si>
   <si>
-    <t>Region: {{data.REGNOME}}</t>
-  </si>
-  <si>
-    <t>Região: {{data.REGNOME}}</t>
-  </si>
-  <si>
-    <t>Health centre area: {{data.HCNOME}}</t>
-  </si>
-  <si>
-    <t>Área sanitárias: {{data.HCNOME}}</t>
-  </si>
-  <si>
-    <t>Subarea: {{data.SUBAREANOME}}</t>
-  </si>
-  <si>
-    <t>Village: {{data.TABNOME}}</t>
-  </si>
-  <si>
-    <t>Tabanca: {{data.TABNOME}}</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
@@ -574,6 +553,45 @@
   </si>
   <si>
     <t>PARHCHOSP</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Health centre area: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Tabanca: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>GRAV</t>
+  </si>
+  <si>
+    <t>cicatrizmae</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data("REGDIA")</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
 </sst>
 </file>
@@ -683,16 +701,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -996,9 +1011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1058,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>7122020</v>
       </c>
     </row>
@@ -1061,10 +1076,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,8 +1105,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G12:G24">
@@ -1104,11 +1123,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,10 +1235,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1227,21 +1246,21 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>92</v>
+      <c r="G7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1249,10 +1268,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1263,10 +1282,10 @@
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1301,13 +1320,13 @@
         <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1318,16 +1337,16 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1362,10 +1381,10 @@
         <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1376,40 +1395,40 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
         <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>38</v>
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1417,10 +1436,10 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1428,10 +1447,10 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1439,10 +1458,10 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1450,10 +1469,10 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1461,10 +1480,10 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1472,10 +1491,10 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1483,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1494,191 +1513,191 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
         <v>58</v>
       </c>
-      <c r="G31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" t="b">
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>129</v>
-      </c>
-      <c r="N36" t="s">
-        <v>130</v>
-      </c>
-      <c r="O36" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" t="s">
+        <v>123</v>
+      </c>
+      <c r="O37" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
-      <c r="K38" t="s">
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" t="s">
+        <v>132</v>
+      </c>
+      <c r="M39" t="s">
+        <v>133</v>
+      </c>
+      <c r="N39" t="s">
+        <v>127</v>
+      </c>
+      <c r="O39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" t="s">
         <v>138</v>
       </c>
-      <c r="L38" t="s">
-        <v>139</v>
-      </c>
-      <c r="M38" t="s">
-        <v>140</v>
-      </c>
-      <c r="N38" t="s">
-        <v>134</v>
-      </c>
-      <c r="O38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>144</v>
-      </c>
-      <c r="H40" t="s">
-        <v>145</v>
-      </c>
-      <c r="K40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>146</v>
+      <c r="K41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -1686,10 +1705,10 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -1697,20 +1716,31 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>38</v>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>146</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1752,32 +1782,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,47 +1816,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,751 +1865,751 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="13" t="str">
+      <c r="A13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>172</v>
+      <c r="C13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="13" t="str">
+      <c r="A14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>173</v>
+      <c r="C14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="13" t="str">
+      <c r="A15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="13" t="str">
+      <c r="C15" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="13" t="str">
+      <c r="C16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="12" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="13" t="str">
+      <c r="C17" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="14"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="14"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="14"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="14"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="14"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="14"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="14"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="14"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="14"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="14"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="14"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="14"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="14"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="14"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="14"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="14"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="14"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="14"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="14"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="14"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="14"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="14"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="14"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="7"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="7"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="7"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
+      <c r="B127" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2604,16 +2634,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2639,16 +2669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2674,11 +2704,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,10 +2872,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2859,10 +2889,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2875,49 +2905,51 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
+      <c r="D13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2929,10 +2961,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2942,109 +2974,118 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
@@ -3053,9 +3094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -3064,9 +3105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -3075,9 +3116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -3086,9 +3127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -3097,18 +3138,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:G25">
+    <sortCondition ref="G25"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C765671-3AB9-4F16-AFE4-DF1BDCC1E34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DAC526-3645-49C1-AFDF-0DE118782DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="209">
   <si>
     <t>setting_name</t>
   </si>
@@ -195,9 +195,6 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>NUMEST</t>
-  </si>
-  <si>
     <t>IDADE</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>PARITY</t>
   </si>
   <si>
-    <t>CICATRIZMAE</t>
-  </si>
-  <si>
     <t>CONSENT</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>Nova criança</t>
   </si>
   <si>
-    <t>VISNO</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Registration of new pregnancy&lt;/b&gt;</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
     <t>Nome de mulher</t>
   </si>
   <si>
-    <t>data("CICATRIZMAE") != null || data("ESTADOMUL") != 1</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -402,9 +390,6 @@
     <t>Idade da mulher</t>
   </si>
   <si>
-    <t>data("IDADE") &gt;=9 &amp;&amp; data("IDADE") &lt;100</t>
-  </si>
-  <si>
     <t>Must be between 10 and 100.</t>
   </si>
   <si>
@@ -429,9 +414,6 @@
     <t>Número de nascimentos anteriores</t>
   </si>
   <si>
-    <t>(data("PARITY") &gt;=0 &amp;&amp; data("PARITY") &lt;20) || data("PARITY") == 33</t>
-  </si>
-  <si>
     <t>If number of previous births is unknown write "33"</t>
   </si>
   <si>
@@ -510,9 +492,6 @@
     <t>Viagem</t>
   </si>
   <si>
-    <t>data("CONSENT") ==  "1"</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
@@ -582,9 +561,6 @@
     <t>GRAV</t>
   </si>
   <si>
-    <t>cicatrizmae</t>
-  </si>
-  <si>
     <t>assign</t>
   </si>
   <si>
@@ -592,6 +568,99 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>CONSENTOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CONSENT") !=null || data("ESTADOMUL") != 1</t>
+  </si>
+  <si>
+    <t>TELE</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Please try to call the woman</t>
+  </si>
+  <si>
+    <t>Number of woman or person in the household</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>data("CALL") == "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CONSENT") !=null || data("ESTADOMUL") == 1 || data("CALL") != 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CONSENTOU") !=null || data("ESTADOMUL") == 1 || data("CALL") == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("TELE") !=null || data("ESTADOMUL") == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CALL") !=null || data("ESTADOMUL") == 1</t>
+  </si>
+  <si>
+    <t>data("CONSENT") ==  "1" || data("CONSENTOU") ==  "1"</t>
+  </si>
+  <si>
+    <t>(data("IDADE") &gt;=9 &amp;&amp; data("IDADE") &lt;100 &amp;&amp;  data("IDADE") !=null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("ESCO") !=null || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>(((data("PARITY") &gt;=0 &amp;&amp; data("PARITY") &lt;20) || data("PARITY") == 33) &amp;&amp;  data("PARITY") != null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>Do you accept that the woman and the future child will participate?</t>
+  </si>
+  <si>
+    <t>Você aceita que a mulher e o futuro filho participem?</t>
+  </si>
+  <si>
+    <t>Did you succeed to get in contact with the woman?</t>
+  </si>
+  <si>
+    <t>Por favor, tente ligar para a mulher</t>
+  </si>
+  <si>
+    <t>Número de mulheres ou pessoas na casa</t>
+  </si>
+  <si>
+    <t>Você conseguiu entrar em contato com a mulher?</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>IDMUL</t>
+  </si>
+  <si>
+    <t>VISNOMUL</t>
+  </si>
+  <si>
+    <t>NOMEMUL</t>
+  </si>
+  <si>
+    <t>CICATRIZMUL</t>
+  </si>
+  <si>
+    <t>DATASAIMUL</t>
+  </si>
+  <si>
+    <t>cicatrizmul</t>
+  </si>
+  <si>
+    <t>data("CICATRIZMUL") != null || data("ESTADOMUL") != 1 || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -1051,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,10 +1145,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,7 +1175,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -1123,11 +1192,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>39</v>
@@ -1213,10 +1282,10 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1224,10 +1293,10 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1235,10 +1304,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1246,10 +1315,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1257,10 +1326,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1268,24 +1337,24 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1306,10 +1375,10 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1317,16 +1386,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1334,19 +1403,19 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1367,24 +1436,24 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1392,19 +1461,19 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1412,13 +1481,13 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1428,18 +1497,15 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1447,10 +1513,10 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1458,10 +1524,10 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1469,10 +1535,10 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1480,10 +1546,10 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1491,10 +1557,10 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1502,10 +1568,10 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1513,10 +1579,10 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1524,223 +1590,477 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>122</v>
-      </c>
-      <c r="N37" t="s">
-        <v>123</v>
-      </c>
-      <c r="O37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="G39" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
-      </c>
-      <c r="L39" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" t="s">
-        <v>127</v>
-      </c>
-      <c r="O39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>57</v>
       </c>
-      <c r="G41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" t="s">
-        <v>138</v>
-      </c>
-      <c r="K41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" t="s">
+        <v>195</v>
+      </c>
+      <c r="H55" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>139</v>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" t="s">
+        <v>117</v>
+      </c>
+      <c r="K62" t="s">
+        <v>192</v>
+      </c>
+      <c r="N62" t="s">
+        <v>118</v>
+      </c>
+      <c r="O62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" t="s">
+        <v>121</v>
+      </c>
+      <c r="K63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" t="s">
+        <v>125</v>
+      </c>
+      <c r="K64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L64" t="s">
+        <v>126</v>
+      </c>
+      <c r="M64" t="s">
+        <v>127</v>
+      </c>
+      <c r="N64" t="s">
+        <v>122</v>
+      </c>
+      <c r="O64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1782,32 +2102,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,47 +2136,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,47 +2185,47 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,92 +2236,92 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B14" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B15" s="12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B17" s="12" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B18" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2704,11 +3024,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D33"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,17 +3073,15 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
+      <c r="D3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -2778,26 +3096,22 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
+      <c r="D5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -2812,26 +3126,22 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
+      <c r="D6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
+      <c r="D7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -2846,33 +3156,29 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
+      <c r="D8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
+      <c r="D9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -2880,33 +3186,29 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
+      <c r="D10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
+      <c r="D11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -2914,9 +3216,7 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
+      <c r="D12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -2932,249 +3232,356 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
+        <v>74</v>
+      </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15"/>
-      <c r="G15"/>
-      <c r="H15"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16"/>
-      <c r="G16"/>
-      <c r="H16"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17"/>
-      <c r="G17"/>
-      <c r="H17"/>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18"/>
-      <c r="G18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19"/>
-      <c r="G19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20"/>
-      <c r="G20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
+        <v>181</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21"/>
-      <c r="G21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22"/>
-      <c r="G22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="b">
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:G25">
-    <sortCondition ref="G25"/>
-  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3198,24 +3605,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DAC526-3645-49C1-AFDF-0DE118782DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71A5F8-9461-4450-B704-588B03036E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="208">
   <si>
     <t>setting_name</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>MOR</t>
-  </si>
-  <si>
-    <t>NOME</t>
   </si>
   <si>
     <t>IDADE</t>
@@ -1080,9 +1077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,10 +1142,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
         <v>138</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,10 +1172,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1194,9 +1191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>39</v>
@@ -1282,10 +1279,10 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
         <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1293,10 +1290,10 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
         <v>83</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1304,10 +1301,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1315,10 +1312,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1326,10 +1323,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1337,24 +1334,24 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
         <v>85</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1375,10 +1372,10 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
         <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1386,16 +1383,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
         <v>106</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>107</v>
-      </c>
-      <c r="K13" t="s">
-        <v>108</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1403,19 +1400,19 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
       <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
         <v>109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1436,24 +1433,24 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
         <v>81</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
         <v>111</v>
-      </c>
-      <c r="H18" t="s">
-        <v>112</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1461,19 +1458,19 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
         <v>113</v>
       </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>114</v>
-      </c>
-      <c r="H19" t="s">
-        <v>115</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1481,13 +1478,13 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
         <v>175</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1497,10 +1494,10 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
-      </c>
-      <c r="C22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1513,10 +1510,10 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
         <v>81</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1524,10 +1521,10 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
         <v>87</v>
-      </c>
-      <c r="H25" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1535,10 +1532,10 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
         <v>89</v>
-      </c>
-      <c r="H26" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1546,10 +1543,10 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
         <v>91</v>
-      </c>
-      <c r="H27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1557,10 +1554,10 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s">
         <v>93</v>
-      </c>
-      <c r="H28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1568,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" t="s">
         <v>95</v>
-      </c>
-      <c r="H29" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1579,10 +1576,10 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
         <v>97</v>
-      </c>
-      <c r="H30" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1590,10 +1587,10 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" t="s">
         <v>99</v>
-      </c>
-      <c r="H31" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1601,30 +1598,30 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
         <v>101</v>
-      </c>
-      <c r="H32" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
         <v>103</v>
       </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>104</v>
       </c>
-      <c r="H33" t="s">
-        <v>105</v>
-      </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
@@ -1634,7 +1631,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -1647,10 +1644,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
         <v>81</v>
-      </c>
-      <c r="H37" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
@@ -1658,50 +1655,50 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" t="s">
+        <v>198</v>
+      </c>
+      <c r="K39" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q39" t="s">
         <v>181</v>
-      </c>
-      <c r="G39" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" t="s">
-        <v>199</v>
-      </c>
-      <c r="K39" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -1719,10 +1716,10 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
         <v>81</v>
-      </c>
-      <c r="H43" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
@@ -1730,10 +1727,10 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
         <v>87</v>
-      </c>
-      <c r="H44" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
@@ -1741,10 +1738,10 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s">
         <v>89</v>
-      </c>
-      <c r="H45" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
@@ -1752,10 +1749,10 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
         <v>91</v>
-      </c>
-      <c r="H46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
@@ -1763,10 +1760,10 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s">
         <v>93</v>
-      </c>
-      <c r="H47" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
@@ -1774,10 +1771,10 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s">
         <v>95</v>
-      </c>
-      <c r="H48" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -1785,10 +1782,10 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" t="s">
         <v>97</v>
-      </c>
-      <c r="H49" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
@@ -1796,10 +1793,10 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" t="s">
         <v>99</v>
-      </c>
-      <c r="H50" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
@@ -1807,68 +1804,68 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" t="s">
         <v>101</v>
-      </c>
-      <c r="H51" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s">
         <v>103</v>
       </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>104</v>
       </c>
-      <c r="H53" t="s">
-        <v>105</v>
-      </c>
       <c r="K53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G55" t="s">
+        <v>194</v>
+      </c>
+      <c r="H55" t="s">
         <v>195</v>
       </c>
-      <c r="H55" t="s">
-        <v>196</v>
-      </c>
       <c r="K55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
@@ -1878,15 +1875,15 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -1899,10 +1896,10 @@
         <v>35</v>
       </c>
       <c r="G61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s">
         <v>81</v>
-      </c>
-      <c r="H61" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -1910,42 +1907,42 @@
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" t="s">
         <v>116</v>
       </c>
-      <c r="H62" t="s">
+      <c r="K62" t="s">
+        <v>191</v>
+      </c>
+      <c r="N62" t="s">
         <v>117</v>
       </c>
-      <c r="K62" t="s">
-        <v>192</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>118</v>
-      </c>
-      <c r="O62" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" t="s">
         <v>120</v>
       </c>
-      <c r="H63" t="s">
-        <v>121</v>
-      </c>
       <c r="K63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
@@ -1953,61 +1950,61 @@
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G64" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" t="s">
         <v>124</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
+        <v>193</v>
+      </c>
+      <c r="L64" t="s">
         <v>125</v>
       </c>
-      <c r="K64" t="s">
-        <v>194</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>126</v>
       </c>
-      <c r="M64" t="s">
-        <v>127</v>
-      </c>
       <c r="N64" t="s">
+        <v>121</v>
+      </c>
+      <c r="O64" t="s">
         <v>122</v>
-      </c>
-      <c r="O64" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
         <v>128</v>
-      </c>
-      <c r="C65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" t="s">
         <v>130</v>
       </c>
-      <c r="F66" t="s">
-        <v>205</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>131</v>
       </c>
-      <c r="H66" t="s">
-        <v>132</v>
-      </c>
       <c r="K66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -2017,7 +2014,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -2030,10 +2027,10 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s">
         <v>81</v>
-      </c>
-      <c r="H71" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -2041,10 +2038,10 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" t="s">
         <v>134</v>
-      </c>
-      <c r="H72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -2052,10 +2049,10 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" t="s">
         <v>136</v>
-      </c>
-      <c r="H73" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -2102,32 +2099,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
         <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
         <v>142</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2136,47 +2133,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>140</v>
-      </c>
-      <c r="D5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
         <v>142</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,47 +2182,47 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
         <v>146</v>
-      </c>
-      <c r="D9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
         <v>148</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,92 +2233,92 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="12" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3073,10 +3070,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3103,10 +3100,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3133,10 +3130,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3163,10 +3160,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3193,10 +3190,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -3232,19 +3229,19 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -3257,10 +3254,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3270,10 +3267,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3283,10 +3280,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3295,7 +3292,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
@@ -3307,10 +3304,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3319,10 +3316,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3331,10 +3328,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3343,10 +3340,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3355,7 +3352,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -3369,10 +3366,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3383,7 +3380,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -3397,10 +3394,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -3427,17 +3424,17 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
     </row>
     <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3449,10 +3446,10 @@
     </row>
     <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3462,10 +3459,10 @@
     </row>
     <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3474,10 +3471,10 @@
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3486,10 +3483,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -3498,10 +3495,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3511,7 +3508,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -3524,7 +3521,7 @@
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
@@ -3535,7 +3532,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
@@ -3605,24 +3602,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71A5F8-9461-4450-B704-588B03036E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4143181-768E-4508-AFEA-0C46049FA7B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="12" r:id="rId2"/>
     <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="7" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
-    <sheet name="model" sheetId="4" r:id="rId6"/>
-    <sheet name="table_specific_translations" sheetId="13" r:id="rId7"/>
+    <sheet name="queries" sheetId="14" r:id="rId4"/>
+    <sheet name="calculates" sheetId="7" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
+    <sheet name="model" sheetId="4" r:id="rId7"/>
+    <sheet name="table_specific_translations" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="230">
   <si>
     <t>setting_name</t>
   </si>
@@ -237,9 +238,6 @@
     <t>NVNMAB</t>
   </si>
   <si>
-    <t>GEMNUM</t>
-  </si>
-  <si>
     <t>GEM</t>
   </si>
   <si>
@@ -658,6 +656,75 @@
   </si>
   <si>
     <t>data("CICATRIZMUL") != null || data("ESTADOMUL") != 1 || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>_id = ?</t>
+  </si>
+  <si>
+    <t>moranca</t>
+  </si>
+  <si>
+    <t>[data('REG'), data('TAB')]</t>
+  </si>
+  <si>
+    <t>REG = ? and TAB = ?</t>
+  </si>
+  <si>
+    <t>moranca_name</t>
+  </si>
+  <si>
+    <t>If the household is not on the list, write the name in field below</t>
+  </si>
+  <si>
+    <t>Se a morança não estiver na lista, escreva o nome no área abaixo</t>
+  </si>
+  <si>
+    <t>data("MOR") == null</t>
+  </si>
+  <si>
+    <t>async_assign_single_string</t>
+  </si>
+  <si>
+    <t>display.hide_adate</t>
+  </si>
+  <si>
+    <t>mor_linked</t>
+  </si>
+  <si>
+    <t>[data('mor_linked')]</t>
   </si>
 </sst>
 </file>
@@ -767,7 +834,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -792,6 +859,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1077,9 +1145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,10 +1210,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
         <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,10 +1240,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1189,11 +1257,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,9 +1282,11 @@
     <col min="14" max="14" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1268,491 +1338,491 @@
       <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" t="b">
+      <c r="L10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
         <v>80</v>
       </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="b">
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K33" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>38</v>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>177</v>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>37</v>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>35</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
         <v>80</v>
       </c>
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>35</v>
       </c>
-      <c r="G38" t="s">
-        <v>182</v>
-      </c>
-      <c r="H38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" t="s">
-        <v>198</v>
-      </c>
-      <c r="K39" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="G42" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H42" t="s">
         <v>196</v>
-      </c>
-      <c r="H40" t="s">
-        <v>199</v>
-      </c>
-      <c r="K40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>197</v>
+      </c>
+      <c r="K43" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>183</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>198</v>
+      </c>
+      <c r="K44" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" t="s">
-        <v>89</v>
+      <c r="B45" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" t="s">
-        <v>91</v>
+      <c r="B46" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
@@ -1760,10 +1830,10 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
@@ -1771,292 +1841,336 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>35</v>
       </c>
       <c r="G51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" t="s">
         <v>100</v>
       </c>
-      <c r="H51" t="s">
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" t="s">
+        <v>193</v>
+      </c>
+      <c r="H59" t="s">
+        <v>194</v>
+      </c>
+      <c r="K59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" t="s">
+        <v>115</v>
+      </c>
+      <c r="K66" t="s">
+        <v>190</v>
+      </c>
+      <c r="N66" t="s">
+        <v>116</v>
+      </c>
+      <c r="O66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" t="s">
+        <v>119</v>
+      </c>
+      <c r="K67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" t="s">
+        <v>123</v>
+      </c>
+      <c r="K68" t="s">
+        <v>192</v>
+      </c>
+      <c r="L68" t="s">
+        <v>124</v>
+      </c>
+      <c r="M68" t="s">
+        <v>125</v>
+      </c>
+      <c r="N68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
         <v>127</v>
       </c>
-      <c r="C52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>56</v>
       </c>
-      <c r="E53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" t="s">
-        <v>104</v>
-      </c>
-      <c r="K53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" t="s">
-        <v>178</v>
-      </c>
-      <c r="G55" t="s">
-        <v>194</v>
-      </c>
-      <c r="H55" t="s">
-        <v>195</v>
-      </c>
-      <c r="K55" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" t="s">
+        <v>129</v>
+      </c>
+      <c r="H70" t="s">
+        <v>130</v>
+      </c>
+      <c r="K70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
+      <c r="H76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>35</v>
       </c>
-      <c r="G61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" t="s">
-        <v>115</v>
-      </c>
-      <c r="H62" t="s">
-        <v>116</v>
-      </c>
-      <c r="K62" t="s">
-        <v>191</v>
-      </c>
-      <c r="N62" t="s">
-        <v>117</v>
-      </c>
-      <c r="O62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" t="s">
-        <v>120</v>
-      </c>
-      <c r="K63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" t="s">
-        <v>123</v>
-      </c>
-      <c r="H64" t="s">
-        <v>124</v>
-      </c>
-      <c r="K64" t="s">
-        <v>193</v>
-      </c>
-      <c r="L64" t="s">
-        <v>125</v>
-      </c>
-      <c r="M64" t="s">
-        <v>126</v>
-      </c>
-      <c r="N64" t="s">
-        <v>121</v>
-      </c>
-      <c r="O64" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>204</v>
-      </c>
-      <c r="G66" t="s">
-        <v>130</v>
-      </c>
-      <c r="H66" t="s">
-        <v>131</v>
-      </c>
-      <c r="K66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>80</v>
-      </c>
-      <c r="H71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G77" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H77" t="s">
         <v>135</v>
       </c>
-      <c r="H73" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2099,32 +2213,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2133,47 +2247,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
         <v>143</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2182,47 +2296,47 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
         <v>145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
         <v>147</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
         <v>149</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,92 +2347,92 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="12" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2936,6 +3050,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C971334-BFF9-40FD-9069-4FCDFC8C151A}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2968,13 +3193,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,19 +3238,27 @@
         <v>29</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3175,7 +3408,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3190,7 +3423,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -3205,7 +3438,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -3219,6 +3452,9 @@
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="D13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -3226,25 +3462,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3254,10 +3492,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3267,10 +3505,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3280,22 +3518,23 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18"/>
+      <c r="I18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
+      <c r="B19" t="s">
+        <v>56</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3304,10 +3543,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3316,10 +3555,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3328,10 +3567,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
+        <v>179</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3340,7 +3579,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -3352,24 +3591,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3380,10 +3617,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3394,10 +3631,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3407,46 +3644,45 @@
       <c r="F27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
+      <c r="A29"/>
+      <c r="C29"/>
+      <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
     </row>
     <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -3454,12 +3690,14 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -3468,10 +3706,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -3481,9 +3720,9 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -3491,11 +3730,11 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="E34"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -3504,14 +3743,13 @@
         <v>0</v>
       </c>
       <c r="E35"/>
-      <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3521,7 +3759,7 @@
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
@@ -3532,7 +3770,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
@@ -3584,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B0205-34E0-49A2-9F34-41FB96755089}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3602,24 +3840,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4143181-768E-4508-AFEA-0C46049FA7B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA1697-3892-4068-89A2-D484DB35772D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="237">
   <si>
     <t>setting_name</t>
   </si>
@@ -580,9 +580,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>Please try to call the woman</t>
-  </si>
-  <si>
     <t>Number of woman or person in the household</t>
   </si>
   <si>
@@ -616,18 +613,9 @@
     <t>(((data("PARITY") &gt;=0 &amp;&amp; data("PARITY") &lt;20) || data("PARITY") == 33) &amp;&amp;  data("PARITY") != null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
   </si>
   <si>
-    <t>Do you accept that the woman and the future child will participate?</t>
-  </si>
-  <si>
-    <t>Você aceita que a mulher e o futuro filho participem?</t>
-  </si>
-  <si>
     <t>Did you succeed to get in contact with the woman?</t>
   </si>
   <si>
-    <t>Por favor, tente ligar para a mulher</t>
-  </si>
-  <si>
     <t>Número de mulheres ou pessoas na casa</t>
   </si>
   <si>
@@ -725,6 +713,39 @@
   </si>
   <si>
     <t>[data('mor_linked')]</t>
+  </si>
+  <si>
+    <t>Remember to give the women the description</t>
+  </si>
+  <si>
+    <t>Lembre-se de dar a descrição às mulheres</t>
+  </si>
+  <si>
+    <t>Remember to give the person the description</t>
+  </si>
+  <si>
+    <t>Lembre-se de dar a descrição à pessoa</t>
+  </si>
+  <si>
+    <t>Are you able to provide information on the pregnancy?</t>
+  </si>
+  <si>
+    <t>Você pode fornecer informações sobre a gravidez?</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Please try to call the woman&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Por favor, tente ligar para a mulher&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>OBSMUL</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; Se você tiver qualquer comentário ou observação sobre a mulher, escreva aqui &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; If you have any comment or observations about the woman, write them here &lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -1257,11 +1278,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1418,10 +1439,10 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
         <v>83</v>
@@ -1438,10 +1459,10 @@
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1510,15 +1531,15 @@
         <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
@@ -1558,7 +1579,7 @@
         <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
         <v>109</v>
@@ -1737,6 +1758,12 @@
       <c r="K37" t="s">
         <v>178</v>
       </c>
+      <c r="L37" t="s">
+        <v>226</v>
+      </c>
+      <c r="M37" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1769,10 +1796,10 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
@@ -1783,13 +1810,13 @@
         <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q43" t="s">
         <v>180</v>
@@ -1803,16 +1830,16 @@
         <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H44" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
@@ -1847,7 +1874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>35</v>
       </c>
@@ -1858,7 +1885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>35</v>
       </c>
@@ -1869,7 +1896,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>35</v>
       </c>
@@ -1880,7 +1907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>35</v>
       </c>
@@ -1891,7 +1918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>35</v>
       </c>
@@ -1902,7 +1929,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>35</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>35</v>
       </c>
@@ -1924,15 +1951,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>56</v>
       </c>
@@ -1949,15 +1976,21 @@
         <v>103</v>
       </c>
       <c r="K57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L57" t="s">
+        <v>226</v>
+      </c>
+      <c r="M57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>56</v>
       </c>
@@ -1968,39 +2001,45 @@
         <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="L59" t="s">
+        <v>228</v>
+      </c>
+      <c r="M59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>37</v>
       </c>
@@ -2030,7 +2069,7 @@
         <v>115</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N66" t="s">
         <v>116</v>
@@ -2056,7 +2095,7 @@
         <v>119</v>
       </c>
       <c r="K67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
@@ -2073,7 +2112,7 @@
         <v>123</v>
       </c>
       <c r="K68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L68" t="s">
         <v>124</v>
@@ -2104,7 +2143,7 @@
         <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G70" t="s">
         <v>129</v>
@@ -2113,7 +2152,7 @@
         <v>130</v>
       </c>
       <c r="K70" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
@@ -2170,7 +2209,21 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="D78" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" t="s">
+        <v>236</v>
+      </c>
+      <c r="H78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3053,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C971334-BFF9-40FD-9069-4FCDFC8C151A}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
@@ -3073,39 +3126,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="H1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="I1" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -3114,24 +3167,24 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -3140,16 +3193,16 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I3" t="s">
         <v>51</v>
@@ -3240,7 +3293,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3254,11 +3307,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3476,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -3438,7 +3491,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -3462,7 +3515,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -3518,7 +3571,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -3579,7 +3632,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -3645,7 +3698,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -3658,46 +3711,45 @@
       <c r="F28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="C29"/>
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>204</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
+      <c r="A30"/>
+      <c r="C30"/>
+      <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
+        <v>200</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
     </row>
     <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -3705,12 +3757,14 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -3719,10 +3773,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -3732,9 +3787,9 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -3742,11 +3797,11 @@
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -3755,22 +3810,23 @@
         <v>0</v>
       </c>
       <c r="E36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
@@ -3778,28 +3834,36 @@
       <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="G38"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E48"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49"/>
@@ -3810,11 +3874,14 @@
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55"/>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA1697-3892-4068-89A2-D484DB35772D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD6531-051D-491C-B623-B0538779F04A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="240">
   <si>
     <t>setting_name</t>
   </si>
@@ -178,9 +178,6 @@
     <t>HCAREA</t>
   </si>
   <si>
-    <t>SUBAREA</t>
-  </si>
-  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>HCAREANOME</t>
   </si>
   <si>
-    <t>SUBAREANOME</t>
-  </si>
-  <si>
     <t>TABNOME</t>
   </si>
   <si>
@@ -535,9 +529,6 @@
     <t>Health centre area: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;b&gt;</t>
-  </si>
-  <si>
     <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
     <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Tabanca: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -715,18 +703,6 @@
     <t>[data('mor_linked')]</t>
   </si>
   <si>
-    <t>Remember to give the women the description</t>
-  </si>
-  <si>
-    <t>Lembre-se de dar a descrição às mulheres</t>
-  </si>
-  <si>
-    <t>Remember to give the person the description</t>
-  </si>
-  <si>
-    <t>Lembre-se de dar a descrição à pessoa</t>
-  </si>
-  <si>
     <t>Are you able to provide information on the pregnancy?</t>
   </si>
   <si>
@@ -746,6 +722,39 @@
   </si>
   <si>
     <t>&lt;i&gt; If you have any comment or observations about the woman, write them here &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Lembre-se de deixar uma descrição em alguém da casa</t>
+  </si>
+  <si>
+    <t>Remember to leave a description at someone in the house</t>
+  </si>
+  <si>
+    <t>Bandim Health Project is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to follow the womans pregnancy until the moment of delivery and her child within the first months.</t>
+  </si>
+  <si>
+    <t>O Projeto Saúde Bandim está realizando um estudo de acompanhamento sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar a gestação da mulher até o momento do parto e seu filho nos primeiros meses.</t>
+  </si>
+  <si>
+    <t>If the woman do not want to participate, her and her child will continue to be treated in the same way as others who have accepted.</t>
+  </si>
+  <si>
+    <t>Se a mulher não quiser participar, ela e seu filho continuarão a ser tratados da mesma forma que outras pessoas que o aceitaram.</t>
+  </si>
+  <si>
+    <t>If she later do not want to continue, she can withdraw her consent.</t>
+  </si>
+  <si>
+    <t>Se mais tarde ela não quiser continuar, ela pode retirar seu consentimento.</t>
+  </si>
+  <si>
+    <t>If you or her have any questions about this work later, you can contact us by phone: 96016462/955946796</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>scar_mul.jpg</t>
   </si>
 </sst>
 </file>
@@ -755,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,19 +825,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -879,8 +889,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1206,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,10 +1241,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,10 +1271,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1278,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,10 +1314,11 @@
     <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>39</v>
@@ -1359,299 +1370,303 @@
       <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>215</v>
+      </c>
+      <c r="M9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
         <v>107</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H21" t="s">
         <v>108</v>
       </c>
-      <c r="J15" t="b">
+      <c r="J21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>35</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>35</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>35</v>
       </c>
@@ -1730,54 +1745,54 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="K36" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" t="s">
-        <v>103</v>
-      </c>
-      <c r="K37" t="s">
-        <v>178</v>
-      </c>
-      <c r="L37" t="s">
-        <v>226</v>
-      </c>
-      <c r="M37" t="s">
-        <v>227</v>
+      <c r="B37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>37</v>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -1785,71 +1800,68 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>189</v>
+      </c>
+      <c r="K42" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K43" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" t="s">
-        <v>192</v>
-      </c>
-      <c r="H44" t="s">
-        <v>194</v>
-      </c>
-      <c r="K44" t="s">
-        <v>187</v>
+      <c r="B44" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>37</v>
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
@@ -1857,10 +1869,10 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
@@ -1868,10 +1880,10 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -1879,10 +1891,10 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -1890,10 +1902,10 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -1901,10 +1913,10 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -1912,10 +1924,10 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -1923,10 +1935,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -1934,10 +1946,10 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -1945,103 +1957,118 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
         <v>99</v>
       </c>
-      <c r="H55" t="s">
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>183</v>
+      <c r="H56" t="s">
+        <v>101</v>
+      </c>
+      <c r="K56" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56" t="s">
+        <v>230</v>
+      </c>
+      <c r="M56" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" t="s">
-        <v>103</v>
-      </c>
-      <c r="K57" t="s">
-        <v>184</v>
-      </c>
-      <c r="L57" t="s">
-        <v>226</v>
-      </c>
-      <c r="M57" t="s">
-        <v>227</v>
+      <c r="B57" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>176</v>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s">
         <v>231</v>
       </c>
-      <c r="K59" t="s">
-        <v>185</v>
-      </c>
-      <c r="L59" t="s">
-        <v>228</v>
-      </c>
-      <c r="M59" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>131</v>
+      <c r="H60" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>38</v>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>131</v>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>188</v>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>233</v>
+      </c>
+      <c r="H63" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>37</v>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>235</v>
+      </c>
+      <c r="H64" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
@@ -2049,181 +2076,281 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="H66" t="s">
-        <v>115</v>
-      </c>
-      <c r="K66" t="s">
-        <v>189</v>
-      </c>
-      <c r="N66" t="s">
-        <v>116</v>
-      </c>
-      <c r="O66" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="F67" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="H67" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="K67" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="L67" t="s">
+        <v>230</v>
+      </c>
+      <c r="M67" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" t="s">
-        <v>122</v>
-      </c>
-      <c r="H68" t="s">
-        <v>123</v>
-      </c>
-      <c r="K68" t="s">
-        <v>191</v>
-      </c>
-      <c r="L68" t="s">
-        <v>124</v>
-      </c>
-      <c r="M68" t="s">
-        <v>125</v>
-      </c>
-      <c r="N68" t="s">
-        <v>120</v>
-      </c>
-      <c r="O68" t="s">
-        <v>121</v>
+      <c r="B68" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" t="s">
-        <v>199</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="B70" t="s">
         <v>129</v>
-      </c>
-      <c r="H70" t="s">
-        <v>130</v>
-      </c>
-      <c r="K70" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>131</v>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>37</v>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K74" t="s">
+        <v>185</v>
+      </c>
+      <c r="N74" t="s">
+        <v>114</v>
+      </c>
+      <c r="O74" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="H75" t="s">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="K75" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="F76" t="s">
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H76" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="K76" t="s">
+        <v>187</v>
+      </c>
+      <c r="L76" t="s">
+        <v>122</v>
+      </c>
+      <c r="M76" t="s">
+        <v>123</v>
+      </c>
+      <c r="N76" t="s">
+        <v>118</v>
+      </c>
+      <c r="O76" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>134</v>
-      </c>
-      <c r="H77" t="s">
-        <v>135</v>
+      <c r="B77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" t="s">
-        <v>234</v>
-      </c>
-      <c r="G78" t="s">
-        <v>236</v>
-      </c>
-      <c r="H78" t="s">
-        <v>235</v>
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" t="s">
+        <v>195</v>
+      </c>
+      <c r="G81" t="s">
+        <v>127</v>
+      </c>
+      <c r="H81" t="s">
+        <v>128</v>
+      </c>
+      <c r="K81" t="s">
+        <v>198</v>
+      </c>
+      <c r="R81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s">
+        <v>130</v>
+      </c>
+      <c r="H87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s">
+        <v>132</v>
+      </c>
+      <c r="H88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" t="s">
+        <v>226</v>
+      </c>
+      <c r="G89" t="s">
+        <v>228</v>
+      </c>
+      <c r="H89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2266,32 +2393,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,47 +2427,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,47 +2476,47 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,92 +2527,92 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="12" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3126,86 +3253,86 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="H1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="I1" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" t="s">
         <v>212</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
-      </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3420,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3307,11 +3434,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,13 +3469,13 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -3356,10 +3483,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3374,7 +3501,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3386,10 +3513,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3404,7 +3531,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3416,10 +3543,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3431,10 +3558,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3446,10 +3573,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3461,10 +3588,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3475,15 +3602,9 @@
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
       <c r="D11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -3491,51 +3612,53 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
       <c r="D13"/>
-      <c r="G13"/>
-      <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
+        <v>0</v>
+      </c>
+      <c r="D14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3545,10 +3668,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3556,110 +3679,112 @@
       <c r="D16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3668,12 +3793,12 @@
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3682,12 +3807,12 @@
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3696,174 +3821,152 @@
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
+        <v>196</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37"/>
+        <v>1</v>
+      </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G48"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49"/>
@@ -3871,17 +3974,11 @@
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57"/>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3907,24 +4004,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD6531-051D-491C-B623-B0538779F04A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69834E57-CCF2-4850-B0F4-8BE8354FBD96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="244">
   <si>
     <t>setting_name</t>
   </si>
@@ -755,6 +755,18 @@
   </si>
   <si>
     <t>scar_mul.jpg</t>
+  </si>
+  <si>
+    <t>Remember to leave a description with someone in the house</t>
+  </si>
+  <si>
+    <t>Lembre-se de deixar uma descrição com alguém da casa</t>
+  </si>
+  <si>
+    <t>Please examine the upper arms of the woman</t>
+  </si>
+  <si>
+    <t>Por favor, examine os braços da mulher</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1190,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,9 +1302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,10 +1775,10 @@
         <v>174</v>
       </c>
       <c r="L36" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -1983,10 +1995,10 @@
         <v>180</v>
       </c>
       <c r="L56" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M56" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -2277,6 +2289,12 @@
       </c>
       <c r="K81" t="s">
         <v>198</v>
+      </c>
+      <c r="L81" t="s">
+        <v>242</v>
+      </c>
+      <c r="M81" t="s">
+        <v>243</v>
       </c>
       <c r="R81" t="s">
         <v>239</v>
@@ -3436,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
@@ -3992,7 +4010,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69834E57-CCF2-4850-B0F4-8BE8354FBD96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF979A-38B8-4F6B-AAE6-1220BB11D4AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="245">
   <si>
     <t>setting_name</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>Por favor, examine os braços da mulher</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
   </si>
 </sst>
 </file>
@@ -1300,11 +1303,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,9 +1331,10 @@
     <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1388,13 +1392,16 @@
       <c r="S1" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>35</v>
       </c>
@@ -1404,8 +1411,11 @@
       <c r="H3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>35</v>
       </c>
@@ -1415,8 +1425,11 @@
       <c r="H4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>35</v>
       </c>
@@ -1426,8 +1439,11 @@
       <c r="H5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>35</v>
       </c>
@@ -1437,8 +1453,11 @@
       <c r="H6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>35</v>
       </c>
@@ -1448,8 +1467,11 @@
       <c r="H7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>55</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>58</v>
       </c>
@@ -1479,19 +1501,22 @@
       <c r="M9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="20"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>35</v>
       </c>
@@ -1501,8 +1526,11 @@
       <c r="H12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -1522,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>55</v>
       </c>
@@ -1542,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>124</v>
       </c>
@@ -1550,7 +1578,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>218</v>
       </c>
@@ -1563,23 +1591,26 @@
       <c r="S16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1620,11 @@
       <c r="H20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>58</v>
       </c>
@@ -1607,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>55</v>
       </c>
@@ -1627,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>169</v>
       </c>
@@ -1637,13 +1671,16 @@
       <c r="I23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>124</v>
       </c>
@@ -1651,12 +1688,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -1666,8 +1703,11 @@
       <c r="H27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>35</v>
       </c>
@@ -1677,8 +1717,11 @@
       <c r="H28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>35</v>
       </c>
@@ -1688,8 +1731,11 @@
       <c r="H29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>35</v>
       </c>
@@ -1699,8 +1745,11 @@
       <c r="H30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>35</v>
       </c>
@@ -1710,8 +1759,11 @@
       <c r="H31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="T31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>35</v>
       </c>
@@ -1721,8 +1773,11 @@
       <c r="H32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>35</v>
       </c>
@@ -1732,8 +1787,11 @@
       <c r="H33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -1743,8 +1801,11 @@
       <c r="H34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>35</v>
       </c>
@@ -1754,8 +1815,11 @@
       <c r="H35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>55</v>
       </c>
@@ -1781,22 +1845,22 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>35</v>
       </c>
@@ -1806,8 +1870,11 @@
       <c r="H40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>35</v>
       </c>
@@ -1817,8 +1884,11 @@
       <c r="H41" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>58</v>
       </c>
@@ -1838,7 +1908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>55</v>
       </c>
@@ -1858,17 +1928,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>124</v>
       </c>
@@ -1876,7 +1946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>35</v>
       </c>
@@ -1886,8 +1956,11 @@
       <c r="H47" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>35</v>
       </c>
@@ -1897,8 +1970,11 @@
       <c r="H48" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>35</v>
       </c>
@@ -1908,8 +1984,11 @@
       <c r="H49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>35</v>
       </c>
@@ -1919,8 +1998,11 @@
       <c r="H50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>35</v>
       </c>
@@ -1930,8 +2012,11 @@
       <c r="H51" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>35</v>
       </c>
@@ -1941,8 +2026,11 @@
       <c r="H52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>35</v>
       </c>
@@ -1952,8 +2040,11 @@
       <c r="H53" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2054,11 @@
       <c r="H54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>35</v>
       </c>
@@ -1974,8 +2068,11 @@
       <c r="H55" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>55</v>
       </c>
@@ -2001,12 +2098,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>35</v>
       </c>
@@ -2016,8 +2113,11 @@
       <c r="H58" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>35</v>
       </c>
@@ -2027,8 +2127,11 @@
       <c r="H59" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>35</v>
       </c>
@@ -2038,8 +2141,11 @@
       <c r="H60" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>35</v>
       </c>
@@ -2049,8 +2155,11 @@
       <c r="H61" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>35</v>
       </c>
@@ -2060,8 +2169,11 @@
       <c r="H62" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>35</v>
       </c>
@@ -2071,8 +2183,11 @@
       <c r="H63" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="T63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>35</v>
       </c>
@@ -2082,8 +2197,11 @@
       <c r="H64" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>35</v>
       </c>
@@ -2093,8 +2211,11 @@
       <c r="H65" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>35</v>
       </c>
@@ -2104,8 +2225,11 @@
       <c r="H66" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>55</v>
       </c>
@@ -2131,22 +2255,22 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>124</v>
       </c>
@@ -2154,12 +2278,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>35</v>
       </c>
@@ -2169,8 +2293,11 @@
       <c r="H73" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>48</v>
       </c>
@@ -2193,7 +2320,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>55</v>
       </c>
@@ -2213,7 +2340,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>48</v>
       </c>
@@ -2242,12 +2369,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>124</v>
       </c>
@@ -2255,12 +2382,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>35</v>
       </c>
@@ -2270,8 +2397,11 @@
       <c r="H80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>55</v>
       </c>
@@ -2300,27 +2430,27 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>35</v>
       </c>
@@ -2330,8 +2460,11 @@
       <c r="H86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>35</v>
       </c>
@@ -2341,8 +2474,11 @@
       <c r="H87" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>35</v>
       </c>
@@ -2352,8 +2488,11 @@
       <c r="H88" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>58</v>
       </c>
@@ -2367,7 +2506,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>38</v>
       </c>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF979A-38B8-4F6B-AAE6-1220BB11D4AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D949F8-1A1C-49EA-868E-69900FEBC056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="263">
   <si>
     <t>setting_name</t>
   </si>
@@ -292,48 +292,12 @@
     <t>Explicação do estudo:</t>
   </si>
   <si>
-    <t>Bandim Health Project is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to follow your pregnancy until the moment of delivery and your child within the first months.</t>
-  </si>
-  <si>
-    <t>O Projeto Saúde Bandim está realizando um estudo de acompanhamento sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez até o momento do parto e seu filho nos primeiros meses.</t>
-  </si>
-  <si>
     <t>This study is to assess the effects of how vaccines are provided at the health centers.</t>
   </si>
   <si>
     <t>O objetivo deste estudo é avaliar os efeitos de como as vacinas são fornecidas nos centros de saúde.</t>
   </si>
   <si>
-    <t>All information collected here will be used for the study only and will be kept confidential.</t>
-  </si>
-  <si>
-    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas em sigilo.</t>
-  </si>
-  <si>
-    <t>If you do not want to participate, you and your child will continue to be treated in the same way as others who have accepted.</t>
-  </si>
-  <si>
-    <t>Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram.</t>
-  </si>
-  <si>
-    <t>If you accept now and later do not want to continue, you can withdraw your consent.</t>
-  </si>
-  <si>
-    <t>Se você aceitar agora e depois não quiser continuar, pode retirar seu consentimento.</t>
-  </si>
-  <si>
-    <t>If you have any questions about this work later, you can contact us by phone: 96016462/955946796</t>
-  </si>
-  <si>
-    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 96016462/955946796</t>
-  </si>
-  <si>
-    <t>Do you have any questions now?</t>
-  </si>
-  <si>
-    <t>Você tem alguma pergunta agora?</t>
-  </si>
-  <si>
     <t>YesNo</t>
   </si>
   <si>
@@ -379,12 +343,6 @@
     <t>Idade da mulher</t>
   </si>
   <si>
-    <t>Must be between 10 and 100.</t>
-  </si>
-  <si>
-    <t>Deve estar entre 10 e 100.</t>
-  </si>
-  <si>
     <t>Highest level of schooling finished</t>
   </si>
   <si>
@@ -397,12 +355,6 @@
     <t>Deve ser maior ou igual a 0. Se desconhecido, 33.</t>
   </si>
   <si>
-    <t>Number of previous births</t>
-  </si>
-  <si>
-    <t>Número de nascimentos anteriores</t>
-  </si>
-  <si>
     <t>If number of previous births is unknown write "33"</t>
   </si>
   <si>
@@ -481,39 +433,6 @@
     <t>Viagem</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>0-3 years</t>
-  </si>
-  <si>
-    <t>4-6 years</t>
-  </si>
-  <si>
-    <t>7-9 years</t>
-  </si>
-  <si>
-    <t>10-12 years</t>
-  </si>
-  <si>
-    <t>University / other</t>
-  </si>
-  <si>
-    <t>0-3 anos</t>
-  </si>
-  <si>
-    <t>4-6 anos</t>
-  </si>
-  <si>
-    <t>7-9 anos</t>
-  </si>
-  <si>
-    <t>10-12 anos</t>
-  </si>
-  <si>
-    <t>Universidade / outro</t>
-  </si>
-  <si>
     <t>LOCPAR</t>
   </si>
   <si>
@@ -583,18 +502,12 @@
     <t xml:space="preserve"> data("CONSENTOU") !=null || data("ESTADOMUL") == 1 || data("CALL") == 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> data("TELE") !=null || data("ESTADOMUL") == 1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> data("CALL") !=null || data("ESTADOMUL") == 1</t>
   </si>
   <si>
     <t>data("CONSENT") ==  "1" || data("CONSENTOU") ==  "1"</t>
   </si>
   <si>
-    <t>(data("IDADE") &gt;=9 &amp;&amp; data("IDADE") &lt;100 &amp;&amp;  data("IDADE") !=null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
-  </si>
-  <si>
     <t xml:space="preserve"> data("ESCO") !=null || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
   </si>
   <si>
@@ -604,9 +517,6 @@
     <t>Did you succeed to get in contact with the woman?</t>
   </si>
   <si>
-    <t>Número de mulheres ou pessoas na casa</t>
-  </si>
-  <si>
     <t>Você conseguiu entrar em contato com a mulher?</t>
   </si>
   <si>
@@ -709,12 +619,6 @@
     <t>Você pode fornecer informações sobre a gravidez?</t>
   </si>
   <si>
-    <t>&lt;i&gt;Please try to call the woman&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;Por favor, tente ligar para a mulher&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>OBSMUL</t>
   </si>
   <si>
@@ -730,27 +634,6 @@
     <t>Remember to leave a description at someone in the house</t>
   </si>
   <si>
-    <t>Bandim Health Project is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to follow the womans pregnancy until the moment of delivery and her child within the first months.</t>
-  </si>
-  <si>
-    <t>O Projeto Saúde Bandim está realizando um estudo de acompanhamento sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar a gestação da mulher até o momento do parto e seu filho nos primeiros meses.</t>
-  </si>
-  <si>
-    <t>If the woman do not want to participate, her and her child will continue to be treated in the same way as others who have accepted.</t>
-  </si>
-  <si>
-    <t>Se a mulher não quiser participar, ela e seu filho continuarão a ser tratados da mesma forma que outras pessoas que o aceitaram.</t>
-  </si>
-  <si>
-    <t>If she later do not want to continue, she can withdraw her consent.</t>
-  </si>
-  <si>
-    <t>Se mais tarde ela não quiser continuar, ela pode retirar seu consentimento.</t>
-  </si>
-  <si>
-    <t>If you or her have any questions about this work later, you can contact us by phone: 96016462/955946796</t>
-  </si>
-  <si>
     <t>display.prompt.image</t>
   </si>
   <si>
@@ -770,6 +653,177 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bandim Health Project&lt;/b&gt; is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to &lt;b&gt;follow your pregnancy&lt;/b&gt; until the moment of delivery and your child within the first months.</t>
+  </si>
+  <si>
+    <t>All information collected here will be used for the study only and will be kept &lt;b&gt;confidential&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Do you have any questions now?&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Você tem alguma pergunta agora?&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Número de telefone de mulher ou pessoa na casa</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Please try to call the woman &lt;/br&gt; Number: {{data.TELE}}&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Por favor, tente ligar para a mulher &lt;/br&gt; Telefone: {{data.TELE}}&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>data("ESCO") == "1"</t>
+  </si>
+  <si>
+    <t>ESCONIVEL</t>
+  </si>
+  <si>
+    <t>SchoolLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("ESCONIVEL") !=null || data("ESCO") !=  "1"</t>
+  </si>
+  <si>
+    <t>1st year</t>
+  </si>
+  <si>
+    <t>2nd year</t>
+  </si>
+  <si>
+    <t>3th year</t>
+  </si>
+  <si>
+    <t>4th year</t>
+  </si>
+  <si>
+    <t>5th year</t>
+  </si>
+  <si>
+    <t>6th year</t>
+  </si>
+  <si>
+    <t>7th year</t>
+  </si>
+  <si>
+    <t>8th year</t>
+  </si>
+  <si>
+    <t>9th year</t>
+  </si>
+  <si>
+    <t>10th year</t>
+  </si>
+  <si>
+    <t>11th year</t>
+  </si>
+  <si>
+    <t>12th year</t>
+  </si>
+  <si>
+    <t>1º ano</t>
+  </si>
+  <si>
+    <t>2º ano</t>
+  </si>
+  <si>
+    <t>3º ano</t>
+  </si>
+  <si>
+    <t>4º ano</t>
+  </si>
+  <si>
+    <t>5º ano</t>
+  </si>
+  <si>
+    <t>6º ano</t>
+  </si>
+  <si>
+    <t>7º ano</t>
+  </si>
+  <si>
+    <t>8º ano</t>
+  </si>
+  <si>
+    <t>9º ano</t>
+  </si>
+  <si>
+    <t>10º ano</t>
+  </si>
+  <si>
+    <t>11º ano</t>
+  </si>
+  <si>
+    <t>12º ano</t>
+  </si>
+  <si>
+    <t>More than 12 years (University or other)</t>
+  </si>
+  <si>
+    <t>Mais de 12 anos (universidade ou outro)</t>
+  </si>
+  <si>
+    <t>Has the woman attended school?</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>A mulher foi à escola?</t>
+  </si>
+  <si>
+    <t>Number of previous births (including stillbirths)</t>
+  </si>
+  <si>
+    <t>Número de nascimentos (incluindo nado mortos)</t>
+  </si>
+  <si>
+    <t>O &lt;b&gt;Projeto Saúde Bandim&lt;/b&gt; está realizando um estudo sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez e seu filho nos primeiros meses.</t>
+  </si>
+  <si>
+    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas  &lt;b&gt;confidenciais&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>If you do not want to participate, &lt;b&gt;you and your child will continue to be treated in the same way as others&lt;/b&gt; who have accepted. If you accept now and later do not want to continue, &lt;b&gt;you can withdraw&lt;/b&gt; your consent.</t>
+  </si>
+  <si>
+    <t>A participação neste estudo é &lt;b&gt;voluntário&lt;/b&gt;. Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram. Se você aceitar agora e depois não quiser continuar, você pode retirar seu consentimento a qualquer momento.</t>
+  </si>
+  <si>
+    <t>If you have any questions about this work later, you can contact us by phone: 969006817 / 956701084.</t>
+  </si>
+  <si>
+    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 969006817 / 956701084.</t>
+  </si>
+  <si>
+    <t>(data("TELE")&gt;100000000 &amp;&amp; data("TELE")&lt;1000000000) || data("TELE") == 999</t>
+  </si>
+  <si>
+    <t>If it is not possible to get a phone number write "999"</t>
+  </si>
+  <si>
+    <t>Se não for possível obter um número de telefone escreva "999"</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; Consent is not given and the interview will end. Please press back, if this is a mistake. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; O consentimento não é dado e a entrevista será encerrada. Por favor, pressione "Atrás", se isso for um erro. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>(data("IDADE") &gt;=0 &amp;&amp; data("IDADE") &lt;100 &amp;&amp;  data("IDADE") !=null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>Must be between 0 and 100.</t>
+  </si>
+  <si>
+    <t>Deve estar entre 0 e 100.</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1310,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,7 +1340,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1303,11 +1357,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,13 +1441,13 @@
         <v>44</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1434,10 +1488,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="T5" t="b">
         <v>1</v>
@@ -1448,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="T6" t="b">
         <v>1</v>
@@ -1462,10 +1516,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="T7" t="b">
         <v>1</v>
@@ -1476,10 +1530,10 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -1496,10 +1550,10 @@
         <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="M9" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
@@ -1538,13 +1592,13 @@
         <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1555,16 +1609,16 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1572,18 +1626,18 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
         <v>50</v>
@@ -1597,7 +1651,7 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
@@ -1629,13 +1683,13 @@
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1643,68 +1697,83 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>255</v>
+      </c>
+      <c r="L22" t="s">
+        <v>256</v>
+      </c>
+      <c r="M22" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>169</v>
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
       </c>
       <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="I23" t="s">
-        <v>170</v>
-      </c>
-      <c r="T23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>38</v>
+      <c r="I24" t="s">
+        <v>143</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s">
-        <v>78</v>
-      </c>
-      <c r="T27" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
@@ -1712,10 +1781,10 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="T28" t="b">
         <v>1</v>
@@ -1726,10 +1795,10 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T29" t="b">
         <v>1</v>
@@ -1740,10 +1809,10 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="T30" t="b">
         <v>1</v>
@@ -1754,10 +1823,10 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T31" t="b">
         <v>1</v>
@@ -1768,10 +1837,10 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="T32" t="b">
         <v>1</v>
@@ -1782,10 +1851,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="T33" t="b">
         <v>1</v>
@@ -1796,10 +1865,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="T34" t="b">
         <v>1</v>
@@ -1810,10 +1879,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="H35" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="T35" t="b">
         <v>1</v>
@@ -1824,25 +1893,25 @@
         <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
         <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="M36" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
@@ -1852,7 +1921,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
@@ -1879,10 +1948,10 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H41" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="T41" t="b">
         <v>1</v>
@@ -1890,60 +1959,54 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" t="s">
-        <v>190</v>
-      </c>
-      <c r="K43" t="s">
-        <v>183</v>
+      <c r="B43" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>179</v>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="T46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
@@ -1951,10 +2014,10 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T47" t="b">
         <v>1</v>
@@ -1965,10 +2028,10 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="T48" t="b">
         <v>1</v>
@@ -1993,10 +2056,10 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="T50" t="b">
         <v>1</v>
@@ -2007,10 +2070,10 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="T51" t="b">
         <v>1</v>
@@ -2021,10 +2084,10 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="T52" t="b">
         <v>1</v>
@@ -2035,10 +2098,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="H53" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="T53" t="b">
         <v>1</v>
@@ -2046,61 +2109,61 @@
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" t="s">
+        <v>54</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s">
-        <v>96</v>
-      </c>
-      <c r="T54" t="b">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="K54" t="s">
+        <v>153</v>
+      </c>
+      <c r="L54" t="s">
+        <v>201</v>
+      </c>
+      <c r="M54" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55" t="s">
-        <v>98</v>
-      </c>
-      <c r="T55" t="b">
-        <v>1</v>
+      <c r="B55" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
-      </c>
-      <c r="K56" t="s">
-        <v>180</v>
-      </c>
-      <c r="L56" t="s">
-        <v>240</v>
-      </c>
-      <c r="M56" t="s">
-        <v>241</v>
+        <v>78</v>
+      </c>
+      <c r="T56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>172</v>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s">
+        <v>84</v>
+      </c>
+      <c r="T57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
@@ -2108,10 +2171,10 @@
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="T58" t="b">
         <v>1</v>
@@ -2122,10 +2185,10 @@
         <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T59" t="b">
         <v>1</v>
@@ -2136,10 +2199,10 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H60" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="T60" t="b">
         <v>1</v>
@@ -2150,10 +2213,10 @@
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="T61" t="b">
         <v>1</v>
@@ -2164,10 +2227,10 @@
         <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="T62" t="b">
         <v>1</v>
@@ -2178,10 +2241,10 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="H63" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="T63" t="b">
         <v>1</v>
@@ -2189,325 +2252,377 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>146</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="H64" t="s">
-        <v>236</v>
-      </c>
-      <c r="T64" t="b">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="K64" t="s">
+        <v>154</v>
+      </c>
+      <c r="L64" t="s">
+        <v>198</v>
+      </c>
+      <c r="M64" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" t="s">
-        <v>237</v>
-      </c>
-      <c r="H65" t="s">
-        <v>96</v>
-      </c>
-      <c r="T65" t="b">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>97</v>
-      </c>
-      <c r="H66" t="s">
-        <v>98</v>
-      </c>
-      <c r="T66" t="b">
-        <v>1</v>
+      <c r="B66" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" t="s">
-        <v>173</v>
-      </c>
-      <c r="G67" t="s">
-        <v>222</v>
-      </c>
-      <c r="H67" t="s">
-        <v>223</v>
-      </c>
-      <c r="K67" t="s">
-        <v>181</v>
-      </c>
-      <c r="L67" t="s">
-        <v>230</v>
-      </c>
-      <c r="M67" t="s">
-        <v>229</v>
+      <c r="B67" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="T70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s">
+        <v>100</v>
+      </c>
+      <c r="H71" t="s">
+        <v>101</v>
+      </c>
+      <c r="K71" t="s">
+        <v>260</v>
+      </c>
+      <c r="N71" t="s">
+        <v>261</v>
+      </c>
+      <c r="O71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" t="s">
+        <v>248</v>
+      </c>
+      <c r="K72" t="s">
+        <v>158</v>
+      </c>
+      <c r="L72" t="s">
+        <v>106</v>
+      </c>
+      <c r="M72" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72" t="s">
+        <v>104</v>
+      </c>
+      <c r="O72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s">
-        <v>78</v>
-      </c>
-      <c r="T73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" t="s">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H74" t="s">
-        <v>113</v>
-      </c>
-      <c r="K74" t="s">
-        <v>185</v>
-      </c>
-      <c r="N74" t="s">
-        <v>114</v>
-      </c>
-      <c r="O74" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>55</v>
-      </c>
-      <c r="E75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F75" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s">
-        <v>117</v>
-      </c>
-      <c r="K75" t="s">
-        <v>186</v>
+        <v>78</v>
+      </c>
+      <c r="T75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="E76" t="s">
+        <v>110</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="K76" t="s">
-        <v>187</v>
-      </c>
-      <c r="L76" t="s">
-        <v>122</v>
-      </c>
-      <c r="M76" t="s">
-        <v>123</v>
-      </c>
-      <c r="N76" t="s">
-        <v>118</v>
-      </c>
-      <c r="O76" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" t="s">
-        <v>125</v>
+      <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" t="s">
+        <v>102</v>
+      </c>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s">
-        <v>78</v>
-      </c>
-      <c r="T80" t="b">
-        <v>1</v>
+      <c r="B80" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" t="s">
-        <v>195</v>
-      </c>
-      <c r="G81" t="s">
-        <v>127</v>
-      </c>
-      <c r="H81" t="s">
-        <v>128</v>
-      </c>
-      <c r="K81" t="s">
-        <v>198</v>
-      </c>
-      <c r="L81" t="s">
-        <v>242</v>
-      </c>
-      <c r="M81" t="s">
-        <v>243</v>
-      </c>
-      <c r="R81" t="s">
-        <v>239</v>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>129</v>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="T83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>129</v>
+      <c r="D84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" t="s">
+        <v>110</v>
+      </c>
+      <c r="F84" t="s">
+        <v>165</v>
+      </c>
+      <c r="G84" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" t="s">
+        <v>112</v>
+      </c>
+      <c r="K84" t="s">
+        <v>168</v>
+      </c>
+      <c r="L84" t="s">
+        <v>203</v>
+      </c>
+      <c r="M84" t="s">
+        <v>204</v>
+      </c>
+      <c r="R84" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" t="s">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s">
-        <v>78</v>
-      </c>
-      <c r="T86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H87" t="s">
-        <v>131</v>
-      </c>
-      <c r="T87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s">
-        <v>132</v>
-      </c>
-      <c r="H88" t="s">
-        <v>133</v>
-      </c>
-      <c r="T88" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>258</v>
+      </c>
+      <c r="H90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>78</v>
+      </c>
+      <c r="T94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" t="s">
+        <v>115</v>
+      </c>
+      <c r="T95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" t="s">
+        <v>117</v>
+      </c>
+      <c r="T96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>58</v>
       </c>
-      <c r="F89" t="s">
-        <v>226</v>
-      </c>
-      <c r="G89" t="s">
-        <v>228</v>
-      </c>
-      <c r="H89" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="F97" t="s">
+        <v>194</v>
+      </c>
+      <c r="G97" t="s">
+        <v>196</v>
+      </c>
+      <c r="H97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2519,11 +2634,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,32 +2665,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,47 +2699,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2633,47 +2748,47 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,149 +2798,230 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>148</v>
+      <c r="A13" t="s">
+        <v>215</v>
       </c>
       <c r="B13" s="12" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="12" t="str">
+      <c r="C14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="12" t="str">
+      <c r="C15" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="12" t="str">
+      <c r="C16" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="12" t="str">
+      <c r="C17" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="12" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="12" t="str">
+      <c r="C18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="12" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="12" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="12" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="12" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f>"11"</f>
+        <v>11</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f>"20"</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
@@ -2847,17 +3043,17 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2871,7 +3067,7 @@
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
@@ -2882,16 +3078,16 @@
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
@@ -2906,13 +3102,13 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -2943,7 +3139,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
     </row>
@@ -2955,9 +3151,9 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
@@ -3087,9 +3283,9 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
@@ -3100,14 +3296,14 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="16"/>
       <c r="C74" s="18"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
@@ -3118,7 +3314,7 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,13 +3326,13 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="16"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,7 +3367,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="14"/>
       <c r="D85" s="13"/>
     </row>
@@ -3195,7 +3391,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="14"/>
       <c r="D89" s="13"/>
     </row>
@@ -3207,7 +3403,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="14"/>
       <c r="D91" s="13"/>
     </row>
@@ -3219,13 +3415,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="14"/>
       <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="14"/>
       <c r="D94" s="13"/>
     </row>
@@ -3243,13 +3439,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="14"/>
       <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="14"/>
       <c r="D98" s="13"/>
     </row>
@@ -3262,18 +3458,18 @@
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="14"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="14"/>
       <c r="D102" s="13"/>
     </row>
@@ -3297,13 +3493,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="14"/>
       <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="14"/>
       <c r="D107" s="13"/>
     </row>
@@ -3316,7 +3512,7 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,12 +3523,15 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
-      <c r="B111" s="16"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="6"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
@@ -3378,6 +3577,9 @@
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3392,7 +3594,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,39 +3612,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -3451,24 +3653,24 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -3477,16 +3679,16 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
@@ -3577,7 +3779,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3591,11 +3793,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,7 +3917,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -3730,7 +3932,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -3745,7 +3947,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -3769,7 +3971,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -3820,12 +4022,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -3838,10 +4039,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
+        <v>148</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3850,10 +4051,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3862,10 +4063,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3874,10 +4075,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3886,7 +4087,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -3898,7 +4099,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -3919,15 +4120,13 @@
         <v>0</v>
       </c>
       <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3938,10 +4137,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3952,7 +4151,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
@@ -3966,10 +4165,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3979,46 +4178,45 @@
       <c r="F27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
+      <c r="A29"/>
+      <c r="C29"/>
+      <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
+        <v>166</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
     </row>
     <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
@@ -4026,12 +4224,14 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>55</v>
@@ -4040,10 +4240,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -4053,9 +4254,9 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
@@ -4063,11 +4264,11 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="E34"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
@@ -4076,22 +4277,23 @@
         <v>0</v>
       </c>
       <c r="E35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
@@ -4099,10 +4301,18 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="G37"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G41"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G42"/>
@@ -4120,7 +4330,7 @@
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E47"/>
+      <c r="G47"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E48"/>
@@ -4131,11 +4341,14 @@
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54"/>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D949F8-1A1C-49EA-868E-69900FEBC056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DEA39-58D9-4E3C-A2CA-8563113B85F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="265">
   <si>
     <t>setting_name</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>Deve estar entre 0 e 100.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registration of new pregnancy. Name: {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registro de nova gravidez. Nome: {{data.NOMEMUL}}&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1359,9 +1365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,10 +1787,10 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T28" t="b">
         <v>1</v>
@@ -1934,10 +1940,10 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T40" t="b">
         <v>1</v>
@@ -2000,10 +2006,10 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T46" t="b">
         <v>1</v>
@@ -2143,10 +2149,10 @@
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T56" t="b">
         <v>1</v>
@@ -2309,10 +2315,10 @@
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T70" t="b">
         <v>1</v>
@@ -2385,10 +2391,10 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H75" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T75" t="b">
         <v>1</v>
@@ -2470,10 +2476,10 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H83" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T83" t="b">
         <v>1</v>
@@ -2533,10 +2539,10 @@
         <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H89" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
@@ -2570,10 +2576,10 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="T94" t="b">
         <v>1</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DEA39-58D9-4E3C-A2CA-8563113B85F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D666402F-5669-4F37-8772-299E85492B58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="268">
   <si>
     <t>setting_name</t>
   </si>
@@ -830,6 +830,15 @@
   </si>
   <si>
     <t>&lt;b&gt;Registro de nova gravidez. Nome: {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>Have scar, uncertain if BCG</t>
+  </si>
+  <si>
+    <t>Tem cicatriz, não tenho certeza se BCG</t>
   </si>
 </sst>
 </file>
@@ -1365,9 +1374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,7 +2499,7 @@
         <v>55</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="F84" t="s">
         <v>165</v>
@@ -2642,16 +2651,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3036,28 +3045,64 @@
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D666402F-5669-4F37-8772-299E85492B58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE93FE-6C56-467B-BEC7-A63CA1249F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="274">
   <si>
     <t>setting_name</t>
   </si>
@@ -839,6 +839,24 @@
   </si>
   <si>
     <t>Tem cicatriz, não tenho certeza se BCG</t>
+  </si>
+  <si>
+    <t>regpar</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>LOCPARCODE</t>
+  </si>
+  <si>
+    <t>locparcodens</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>LOCPAROU</t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
@@ -3846,9 +3864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,7 +4271,7 @@
       <c r="A30" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="b">
@@ -4275,7 +4293,6 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -4327,45 +4344,94 @@
       <c r="C35" t="b">
         <v>0</v>
       </c>
+      <c r="D35"/>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D36"/>
       <c r="E36"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>161</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE93FE-6C56-467B-BEC7-A63CA1249F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CAEB9F-9DA6-483C-AA9E-3497B6F8174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="calculates" sheetId="7" r:id="rId5"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
     <sheet name="model" sheetId="4" r:id="rId7"/>
-    <sheet name="table_specific_translations" sheetId="13" r:id="rId8"/>
+    <sheet name="properties" sheetId="16" r:id="rId8"/>
+    <sheet name="table_specific_translations" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="283">
   <si>
     <t>setting_name</t>
   </si>
@@ -280,583 +281,610 @@
     <t>Você está prestes a registrar uma nova gravidez em:</t>
   </si>
   <si>
+    <t>Explanation of the study:</t>
+  </si>
+  <si>
+    <t>Explicação do estudo:</t>
+  </si>
+  <si>
+    <t>This study is to assess the effects of how vaccines are provided at the health centers.</t>
+  </si>
+  <si>
+    <t>O objetivo deste estudo é avaliar os efeitos de como as vacinas são fornecidas nos centros de saúde.</t>
+  </si>
+  <si>
+    <t>YesNo</t>
+  </si>
+  <si>
+    <t>Do you accept that you and your future child will participate?</t>
+  </si>
+  <si>
+    <t>Você aceita que você e seu futuro filho participem?</t>
+  </si>
+  <si>
+    <t>Date of registration</t>
+  </si>
+  <si>
+    <t>Data de registro</t>
+  </si>
+  <si>
+    <t>not(adate.hasUncertainty(data("REGDIA"))) &amp;&amp; data("REGDIA") != null &amp;&amp; adate.ageInYears(data("REGDIA")) != -9999 &amp;&amp; adate.ageInYears(data("REGDIA")) &lt; 2019</t>
+  </si>
+  <si>
+    <t>Is the pregnancy already registered by the CHW?</t>
+  </si>
+  <si>
+    <t>A gravidez já é registrada pelo ASC?</t>
+  </si>
+  <si>
+    <t>Name of woman</t>
+  </si>
+  <si>
+    <t>Nome de mulher</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status of woman</t>
+  </si>
+  <si>
+    <t>Estado de mulher</t>
+  </si>
+  <si>
+    <t>Age of the woman</t>
+  </si>
+  <si>
+    <t>Idade da mulher</t>
+  </si>
+  <si>
+    <t>Highest level of schooling finished</t>
+  </si>
+  <si>
+    <t>Maior nível de escolaridade concluído</t>
+  </si>
+  <si>
+    <t>Must be greater or equal to 0. If unknown 33.</t>
+  </si>
+  <si>
+    <t>Deve ser maior ou igual a 0. Se desconhecido, 33.</t>
+  </si>
+  <si>
+    <t>If number of previous births is unknown write "33"</t>
+  </si>
+  <si>
+    <t>Se o número de nascimentos anteriores for desconhecido, escreva "33"</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>data("ESTADOMUL") == "1"</t>
+  </si>
+  <si>
+    <t>YesNoDontknow</t>
+  </si>
+  <si>
+    <t>Does the woman have a scar from the BCG-vaccine?</t>
+  </si>
+  <si>
+    <t>A mulher tem uma cicatriz da vacina BCG?</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>The questionnaire is now finished.</t>
+  </si>
+  <si>
+    <t>O questionário está concluído.</t>
+  </si>
+  <si>
+    <t>Thank you for your time.</t>
+  </si>
+  <si>
+    <t>Obrigado pelo seu tempo.</t>
+  </si>
+  <si>
+    <t>Inclusion to CS-BCG</t>
+  </si>
+  <si>
+    <t>Inclusão no CS-BCG</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Ausente</t>
+  </si>
+  <si>
+    <t>Traveling</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>LOCPAR</t>
+  </si>
+  <si>
+    <t>PARTAB</t>
+  </si>
+  <si>
+    <t>PARHCHOSP</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Health centre area: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Tabanca: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>GRAV</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data("REGDIA")</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>CONSENTOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CONSENT") !=null || data("ESTADOMUL") != 1</t>
+  </si>
+  <si>
+    <t>TELE</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Number of woman or person in the household</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>data("CALL") == "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CONSENT") !=null || data("ESTADOMUL") == 1 || data("CALL") != 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CONSENTOU") !=null || data("ESTADOMUL") == 1 || data("CALL") == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("CALL") !=null || data("ESTADOMUL") == 1</t>
+  </si>
+  <si>
+    <t>data("CONSENT") ==  "1" || data("CONSENTOU") ==  "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("ESCO") !=null || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>(((data("PARITY") &gt;=0 &amp;&amp; data("PARITY") &lt;20) || data("PARITY") == 33) &amp;&amp;  data("PARITY") != null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>Did you succeed to get in contact with the woman?</t>
+  </si>
+  <si>
+    <t>Você conseguiu entrar em contato com a mulher?</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>IDMUL</t>
+  </si>
+  <si>
+    <t>VISNOMUL</t>
+  </si>
+  <si>
+    <t>NOMEMUL</t>
+  </si>
+  <si>
+    <t>CICATRIZMUL</t>
+  </si>
+  <si>
+    <t>DATASAIMUL</t>
+  </si>
+  <si>
+    <t>cicatrizmul</t>
+  </si>
+  <si>
+    <t>data("CICATRIZMUL") != null || data("ESTADOMUL") != 1 || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>_id = ?</t>
+  </si>
+  <si>
+    <t>moranca</t>
+  </si>
+  <si>
+    <t>[data('REG'), data('TAB')]</t>
+  </si>
+  <si>
+    <t>REG = ? and TAB = ?</t>
+  </si>
+  <si>
+    <t>moranca_name</t>
+  </si>
+  <si>
+    <t>async_assign_single_string</t>
+  </si>
+  <si>
+    <t>display.hide_adate</t>
+  </si>
+  <si>
+    <t>mor_linked</t>
+  </si>
+  <si>
+    <t>[data('mor_linked')]</t>
+  </si>
+  <si>
+    <t>Are you able to provide information on the pregnancy?</t>
+  </si>
+  <si>
+    <t>Você pode fornecer informações sobre a gravidez?</t>
+  </si>
+  <si>
+    <t>OBSMUL</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; Se você tiver qualquer comentário ou observação sobre a mulher, escreva aqui &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; If you have any comment or observations about the woman, write them here &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Lembre-se de deixar uma descrição em alguém da casa</t>
+  </si>
+  <si>
+    <t>Remember to leave a description at someone in the house</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>scar_mul.jpg</t>
+  </si>
+  <si>
+    <t>Remember to leave a description with someone in the house</t>
+  </si>
+  <si>
+    <t>Lembre-se de deixar uma descrição com alguém da casa</t>
+  </si>
+  <si>
+    <t>Please examine the upper arms of the woman</t>
+  </si>
+  <si>
+    <t>Por favor, examine os braços da mulher</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bandim Health Project&lt;/b&gt; is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to &lt;b&gt;follow your pregnancy&lt;/b&gt; until the moment of delivery and your child within the first months.</t>
+  </si>
+  <si>
+    <t>All information collected here will be used for the study only and will be kept &lt;b&gt;confidential&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Do you have any questions now?&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Você tem alguma pergunta agora?&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Número de telefone de mulher ou pessoa na casa</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Please try to call the woman &lt;/br&gt; Number: {{data.TELE}}&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Por favor, tente ligar para a mulher &lt;/br&gt; Telefone: {{data.TELE}}&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>data("ESCO") == "1"</t>
+  </si>
+  <si>
+    <t>ESCONIVEL</t>
+  </si>
+  <si>
+    <t>SchoolLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("ESCONIVEL") !=null || data("ESCO") !=  "1"</t>
+  </si>
+  <si>
+    <t>1st year</t>
+  </si>
+  <si>
+    <t>2nd year</t>
+  </si>
+  <si>
+    <t>3th year</t>
+  </si>
+  <si>
+    <t>4th year</t>
+  </si>
+  <si>
+    <t>5th year</t>
+  </si>
+  <si>
+    <t>6th year</t>
+  </si>
+  <si>
+    <t>7th year</t>
+  </si>
+  <si>
+    <t>8th year</t>
+  </si>
+  <si>
+    <t>9th year</t>
+  </si>
+  <si>
+    <t>10th year</t>
+  </si>
+  <si>
+    <t>11th year</t>
+  </si>
+  <si>
+    <t>12th year</t>
+  </si>
+  <si>
+    <t>1º ano</t>
+  </si>
+  <si>
+    <t>2º ano</t>
+  </si>
+  <si>
+    <t>3º ano</t>
+  </si>
+  <si>
+    <t>4º ano</t>
+  </si>
+  <si>
+    <t>5º ano</t>
+  </si>
+  <si>
+    <t>6º ano</t>
+  </si>
+  <si>
+    <t>7º ano</t>
+  </si>
+  <si>
+    <t>8º ano</t>
+  </si>
+  <si>
+    <t>9º ano</t>
+  </si>
+  <si>
+    <t>10º ano</t>
+  </si>
+  <si>
+    <t>11º ano</t>
+  </si>
+  <si>
+    <t>12º ano</t>
+  </si>
+  <si>
+    <t>More than 12 years (University or other)</t>
+  </si>
+  <si>
+    <t>Mais de 12 anos (universidade ou outro)</t>
+  </si>
+  <si>
+    <t>Has the woman attended school?</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>A mulher foi à escola?</t>
+  </si>
+  <si>
+    <t>Number of previous births (including stillbirths)</t>
+  </si>
+  <si>
+    <t>Número de nascimentos (incluindo nado mortos)</t>
+  </si>
+  <si>
+    <t>O &lt;b&gt;Projeto Saúde Bandim&lt;/b&gt; está realizando um estudo sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez e seu filho nos primeiros meses.</t>
+  </si>
+  <si>
+    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas  &lt;b&gt;confidenciais&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>If you do not want to participate, &lt;b&gt;you and your child will continue to be treated in the same way as others&lt;/b&gt; who have accepted. If you accept now and later do not want to continue, &lt;b&gt;you can withdraw&lt;/b&gt; your consent.</t>
+  </si>
+  <si>
+    <t>A participação neste estudo é &lt;b&gt;voluntário&lt;/b&gt;. Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram. Se você aceitar agora e depois não quiser continuar, você pode retirar seu consentimento a qualquer momento.</t>
+  </si>
+  <si>
+    <t>If you have any questions about this work later, you can contact us by phone: 969006817 / 956701084.</t>
+  </si>
+  <si>
+    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 969006817 / 956701084.</t>
+  </si>
+  <si>
+    <t>(data("TELE")&gt;100000000 &amp;&amp; data("TELE")&lt;1000000000) || data("TELE") == 999</t>
+  </si>
+  <si>
+    <t>If it is not possible to get a phone number write "999"</t>
+  </si>
+  <si>
+    <t>Se não for possível obter um número de telefone escreva "999"</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; Consent is not given and the interview will end. Please press back, if this is a mistake. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; O consentimento não é dado e a entrevista será encerrada. Por favor, pressione "Atrás", se isso for um erro. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>(data("IDADE") &gt;=0 &amp;&amp; data("IDADE") &lt;100 &amp;&amp;  data("IDADE") !=null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
+  </si>
+  <si>
+    <t>Must be between 0 and 100.</t>
+  </si>
+  <si>
+    <t>Deve estar entre 0 e 100.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registration of new pregnancy. Name: {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registro de nova gravidez. Nome: {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>Have scar, uncertain if BCG</t>
+  </si>
+  <si>
+    <t>Tem cicatriz, não tenho certeza se BCG</t>
+  </si>
+  <si>
+    <t>regpar</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>LOCPARCODE</t>
+  </si>
+  <si>
+    <t>locparcodens</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>LOCPAROU</t>
+  </si>
+  <si>
+    <t>order_by</t>
+  </si>
+  <si>
+    <t>MOR ASC</t>
+  </si>
+  <si>
     <t>Household</t>
   </si>
   <si>
     <t>Morança</t>
   </si>
   <si>
-    <t>Explanation of the study:</t>
-  </si>
-  <si>
-    <t>Explicação do estudo:</t>
-  </si>
-  <si>
-    <t>This study is to assess the effects of how vaccines are provided at the health centers.</t>
-  </si>
-  <si>
-    <t>O objetivo deste estudo é avaliar os efeitos de como as vacinas são fornecidas nos centros de saúde.</t>
-  </si>
-  <si>
-    <t>YesNo</t>
-  </si>
-  <si>
-    <t>Do you accept that you and your future child will participate?</t>
-  </si>
-  <si>
-    <t>Você aceita que você e seu futuro filho participem?</t>
-  </si>
-  <si>
-    <t>Date of registration</t>
-  </si>
-  <si>
-    <t>Data de registro</t>
-  </si>
-  <si>
-    <t>not(adate.hasUncertainty(data("REGDIA"))) &amp;&amp; data("REGDIA") != null &amp;&amp; adate.ageInYears(data("REGDIA")) != -9999 &amp;&amp; adate.ageInYears(data("REGDIA")) &lt; 2019</t>
-  </si>
-  <si>
-    <t>Is the pregnancy already registered by the CHW?</t>
-  </si>
-  <si>
-    <t>A gravidez já é registrada pelo ASC?</t>
-  </si>
-  <si>
-    <t>Name of woman</t>
-  </si>
-  <si>
-    <t>Nome de mulher</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Status of woman</t>
-  </si>
-  <si>
-    <t>Estado de mulher</t>
-  </si>
-  <si>
-    <t>Age of the woman</t>
-  </si>
-  <si>
-    <t>Idade da mulher</t>
-  </si>
-  <si>
-    <t>Highest level of schooling finished</t>
-  </si>
-  <si>
-    <t>Maior nível de escolaridade concluído</t>
-  </si>
-  <si>
-    <t>Must be greater or equal to 0. If unknown 33.</t>
-  </si>
-  <si>
-    <t>Deve ser maior ou igual a 0. Se desconhecido, 33.</t>
-  </si>
-  <si>
-    <t>If number of previous births is unknown write "33"</t>
-  </si>
-  <si>
-    <t>Se o número de nascimentos anteriores for desconhecido, escreva "33"</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>data("ESTADOMUL") == "1"</t>
-  </si>
-  <si>
-    <t>YesNoDontknow</t>
-  </si>
-  <si>
-    <t>Does the woman have a scar from the BCG-vaccine?</t>
-  </si>
-  <si>
-    <t>A mulher tem uma cicatriz da vacina BCG?</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>The questionnaire is now finished.</t>
-  </si>
-  <si>
-    <t>O questionário está concluído.</t>
-  </si>
-  <si>
-    <t>Thank you for your time.</t>
-  </si>
-  <si>
-    <t>Obrigado pelo seu tempo.</t>
-  </si>
-  <si>
-    <t>Inclusion to CS-BCG</t>
-  </si>
-  <si>
-    <t>Inclusão no CS-BCG</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Don't know</t>
-  </si>
-  <si>
-    <t>Não sabe</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Presente</t>
-  </si>
-  <si>
-    <t>Absent</t>
-  </si>
-  <si>
-    <t>Ausente</t>
-  </si>
-  <si>
-    <t>Traveling</t>
-  </si>
-  <si>
-    <t>Viagem</t>
-  </si>
-  <si>
-    <t>LOCPAR</t>
-  </si>
-  <si>
-    <t>PARTAB</t>
-  </si>
-  <si>
-    <t>PARHCHOSP</t>
-  </si>
-  <si>
-    <t>Region: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Health centre area: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Região: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Tabanca: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>GRAV</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>data("REGDIA")</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>CONSENTOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data("CONSENT") !=null || data("ESTADOMUL") != 1</t>
-  </si>
-  <si>
-    <t>TELE</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Number of woman or person in the household</t>
-  </si>
-  <si>
-    <t>CALL</t>
-  </si>
-  <si>
-    <t>data("CALL") == "1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data("CONSENT") !=null || data("ESTADOMUL") == 1 || data("CALL") != 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data("CONSENTOU") !=null || data("ESTADOMUL") == 1 || data("CALL") == 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data("CALL") !=null || data("ESTADOMUL") == 1</t>
-  </si>
-  <si>
-    <t>data("CONSENT") ==  "1" || data("CONSENTOU") ==  "1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data("ESCO") !=null || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
-  </si>
-  <si>
-    <t>(((data("PARITY") &gt;=0 &amp;&amp; data("PARITY") &lt;20) || data("PARITY") == 33) &amp;&amp;  data("PARITY") != null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
-  </si>
-  <si>
-    <t>Did you succeed to get in contact with the woman?</t>
-  </si>
-  <si>
-    <t>Você conseguiu entrar em contato com a mulher?</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>IDMUL</t>
-  </si>
-  <si>
-    <t>VISNOMUL</t>
-  </si>
-  <si>
-    <t>NOMEMUL</t>
-  </si>
-  <si>
-    <t>CICATRIZMUL</t>
-  </si>
-  <si>
-    <t>DATASAIMUL</t>
-  </si>
-  <si>
-    <t>cicatrizmul</t>
-  </si>
-  <si>
-    <t>data("CICATRIZMUL") != null || data("ESTADOMUL") != 1 || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
-  </si>
-  <si>
-    <t>query_name</t>
-  </si>
-  <si>
-    <t>query_type</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>_id = ?</t>
-  </si>
-  <si>
-    <t>moranca</t>
-  </si>
-  <si>
-    <t>[data('REG'), data('TAB')]</t>
-  </si>
-  <si>
-    <t>REG = ? and TAB = ?</t>
-  </si>
-  <si>
-    <t>moranca_name</t>
-  </si>
-  <si>
-    <t>If the household is not on the list, write the name in field below</t>
-  </si>
-  <si>
-    <t>Se a morança não estiver na lista, escreva o nome no área abaixo</t>
-  </si>
-  <si>
-    <t>data("MOR") == null</t>
-  </si>
-  <si>
-    <t>async_assign_single_string</t>
-  </si>
-  <si>
-    <t>display.hide_adate</t>
-  </si>
-  <si>
-    <t>mor_linked</t>
-  </si>
-  <si>
-    <t>[data('mor_linked')]</t>
-  </si>
-  <si>
-    <t>Are you able to provide information on the pregnancy?</t>
-  </si>
-  <si>
-    <t>Você pode fornecer informações sobre a gravidez?</t>
-  </si>
-  <si>
-    <t>OBSMUL</t>
-  </si>
-  <si>
-    <t>&lt;i&gt; Se você tiver qualquer comentário ou observação sobre a mulher, escreva aqui &lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i&gt; If you have any comment or observations about the woman, write them here &lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>Lembre-se de deixar uma descrição em alguém da casa</t>
-  </si>
-  <si>
-    <t>Remember to leave a description at someone in the house</t>
-  </si>
-  <si>
-    <t>display.prompt.image</t>
-  </si>
-  <si>
-    <t>scar_mul.jpg</t>
-  </si>
-  <si>
-    <t>Remember to leave a description with someone in the house</t>
-  </si>
-  <si>
-    <t>Lembre-se de deixar uma descrição com alguém da casa</t>
-  </si>
-  <si>
-    <t>Please examine the upper arms of the woman</t>
-  </si>
-  <si>
-    <t>Por favor, examine os braços da mulher</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Bandim Health Project&lt;/b&gt; is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to &lt;b&gt;follow your pregnancy&lt;/b&gt; until the moment of delivery and your child within the first months.</t>
-  </si>
-  <si>
-    <t>All information collected here will be used for the study only and will be kept &lt;b&gt;confidential&lt;/b&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Do you have any questions now?&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Você tem alguma pergunta agora?&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Número de telefone de mulher ou pessoa na casa</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;Please try to call the woman &lt;/br&gt; Number: {{data.TELE}}&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;Por favor, tente ligar para a mulher &lt;/br&gt; Telefone: {{data.TELE}}&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>data("ESCO") == "1"</t>
-  </si>
-  <si>
-    <t>ESCONIVEL</t>
-  </si>
-  <si>
-    <t>SchoolLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> data("ESCONIVEL") !=null || data("ESCO") !=  "1"</t>
-  </si>
-  <si>
-    <t>1st year</t>
-  </si>
-  <si>
-    <t>2nd year</t>
-  </si>
-  <si>
-    <t>3th year</t>
-  </si>
-  <si>
-    <t>4th year</t>
-  </si>
-  <si>
-    <t>5th year</t>
-  </si>
-  <si>
-    <t>6th year</t>
-  </si>
-  <si>
-    <t>7th year</t>
-  </si>
-  <si>
-    <t>8th year</t>
-  </si>
-  <si>
-    <t>9th year</t>
-  </si>
-  <si>
-    <t>10th year</t>
-  </si>
-  <si>
-    <t>11th year</t>
-  </si>
-  <si>
-    <t>12th year</t>
-  </si>
-  <si>
-    <t>1º ano</t>
-  </si>
-  <si>
-    <t>2º ano</t>
-  </si>
-  <si>
-    <t>3º ano</t>
-  </si>
-  <si>
-    <t>4º ano</t>
-  </si>
-  <si>
-    <t>5º ano</t>
-  </si>
-  <si>
-    <t>6º ano</t>
-  </si>
-  <si>
-    <t>7º ano</t>
-  </si>
-  <si>
-    <t>8º ano</t>
-  </si>
-  <si>
-    <t>9º ano</t>
-  </si>
-  <si>
-    <t>10º ano</t>
-  </si>
-  <si>
-    <t>11º ano</t>
-  </si>
-  <si>
-    <t>12º ano</t>
-  </si>
-  <si>
-    <t>More than 12 years (University or other)</t>
-  </si>
-  <si>
-    <t>Mais de 12 anos (universidade ou outro)</t>
-  </si>
-  <si>
-    <t>Has the woman attended school?</t>
-  </si>
-  <si>
-    <t>Nenhum</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>A mulher foi à escola?</t>
-  </si>
-  <si>
-    <t>Number of previous births (including stillbirths)</t>
-  </si>
-  <si>
-    <t>Número de nascimentos (incluindo nado mortos)</t>
-  </si>
-  <si>
-    <t>O &lt;b&gt;Projeto Saúde Bandim&lt;/b&gt; está realizando um estudo sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez e seu filho nos primeiros meses.</t>
-  </si>
-  <si>
-    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas  &lt;b&gt;confidenciais&lt;/b&gt;.</t>
-  </si>
-  <si>
-    <t>If you do not want to participate, &lt;b&gt;you and your child will continue to be treated in the same way as others&lt;/b&gt; who have accepted. If you accept now and later do not want to continue, &lt;b&gt;you can withdraw&lt;/b&gt; your consent.</t>
-  </si>
-  <si>
-    <t>A participação neste estudo é &lt;b&gt;voluntário&lt;/b&gt;. Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram. Se você aceitar agora e depois não quiser continuar, você pode retirar seu consentimento a qualquer momento.</t>
-  </si>
-  <si>
-    <t>If you have any questions about this work later, you can contact us by phone: 969006817 / 956701084.</t>
-  </si>
-  <si>
-    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 969006817 / 956701084.</t>
-  </si>
-  <si>
-    <t>(data("TELE")&gt;100000000 &amp;&amp; data("TELE")&lt;1000000000) || data("TELE") == 999</t>
-  </si>
-  <si>
-    <t>If it is not possible to get a phone number write "999"</t>
-  </si>
-  <si>
-    <t>Se não for possível obter um número de telefone escreva "999"</t>
-  </si>
-  <si>
-    <t>&lt;font color = "red"&gt; Consent is not given and the interview will end. Please press back, if this is a mistake. &lt;/font&gt;</t>
-  </si>
-  <si>
-    <t>&lt;font color = "red"&gt; O consentimento não é dado e a entrevista será encerrada. Por favor, pressione "Atrás", se isso for um erro. &lt;/font&gt;</t>
-  </si>
-  <si>
-    <t>(data("IDADE") &gt;=0 &amp;&amp; data("IDADE") &lt;100 &amp;&amp;  data("IDADE") !=null) || (data("CONSENT") !=  "1" &amp;&amp; data("CONSENTOU") !=  "1")</t>
-  </si>
-  <si>
-    <t>Must be between 0 and 100.</t>
-  </si>
-  <si>
-    <t>Deve estar entre 0 e 100.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Registration of new pregnancy. Name: {{data.NOMEMUL}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Registro de nova gravidez. Nome: {{data.NOMEMUL}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Scar</t>
-  </si>
-  <si>
-    <t>Have scar, uncertain if BCG</t>
-  </si>
-  <si>
-    <t>Tem cicatriz, não tenho certeza se BCG</t>
-  </si>
-  <si>
-    <t>regpar</t>
-  </si>
-  <si>
-    <t>select_one_dropdown</t>
-  </si>
-  <si>
-    <t>LOCPARCODE</t>
-  </si>
-  <si>
-    <t>locparcodens</t>
-  </si>
-  <si>
-    <t>select_multiple</t>
-  </si>
-  <si>
-    <t>LOCPAROU</t>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
   </si>
 </sst>
 </file>
@@ -967,7 +995,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -993,6 +1021,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1343,10 +1372,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,7 +1402,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1390,11 +1419,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,13 +1503,13 @@
         <v>44</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1521,10 +1550,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T5" t="b">
         <v>1</v>
@@ -1535,10 +1564,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T6" t="b">
         <v>1</v>
@@ -1549,10 +1578,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T7" t="b">
         <v>1</v>
@@ -1560,253 +1589,262 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>272</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M9" t="s">
-        <v>186</v>
-      </c>
-      <c r="T9" t="b">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="20"/>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="T12" t="b">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="s">
         <v>92</v>
       </c>
-      <c r="P13" t="b">
-        <v>0</v>
+      <c r="J13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="S16" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
       </c>
       <c r="T16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>113</v>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>38</v>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>250</v>
+      </c>
+      <c r="L18" t="s">
+        <v>251</v>
+      </c>
+      <c r="M18" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>37</v>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>78</v>
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
       </c>
       <c r="T20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" t="s">
-        <v>210</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>255</v>
-      </c>
-      <c r="L22" t="s">
-        <v>256</v>
-      </c>
-      <c r="M22" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>149</v>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" t="s">
-        <v>143</v>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" t="s">
+        <v>259</v>
       </c>
       <c r="T24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" t="s">
+        <v>244</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>37</v>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
@@ -1814,10 +1852,10 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="H28" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="T28" t="b">
         <v>1</v>
@@ -1828,10 +1866,10 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="T29" t="b">
         <v>1</v>
@@ -1842,7 +1880,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="H30" t="s">
         <v>249</v>
@@ -1856,10 +1894,10 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="T31" t="b">
         <v>1</v>
@@ -1867,165 +1905,165 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
-      </c>
-      <c r="T32" t="b">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="K32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>251</v>
-      </c>
-      <c r="H33" t="s">
-        <v>252</v>
-      </c>
-      <c r="T33" t="b">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>253</v>
-      </c>
-      <c r="H34" t="s">
-        <v>254</v>
-      </c>
-      <c r="T34" t="b">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>208</v>
-      </c>
-      <c r="H35" t="s">
-        <v>209</v>
-      </c>
-      <c r="T35" t="b">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" t="s">
+        <v>259</v>
+      </c>
+      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="E36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" t="s">
-        <v>147</v>
-      </c>
-      <c r="L36" t="s">
-        <v>201</v>
-      </c>
-      <c r="M36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>145</v>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>263</v>
-      </c>
-      <c r="H40" t="s">
-        <v>264</v>
-      </c>
-      <c r="T40" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s">
-        <v>211</v>
-      </c>
-      <c r="H41" t="s">
-        <v>212</v>
-      </c>
-      <c r="T41" t="b">
-        <v>1</v>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="H42" t="s">
-        <v>160</v>
-      </c>
-      <c r="K42" t="s">
-        <v>155</v>
+        <v>259</v>
+      </c>
+      <c r="T42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>38</v>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
+      <c r="T43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>37</v>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" t="s">
+        <v>244</v>
+      </c>
+      <c r="T44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" t="s">
-        <v>152</v>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s">
+        <v>84</v>
+      </c>
+      <c r="T45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
@@ -2033,10 +2071,10 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="H46" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="T46" t="b">
         <v>1</v>
@@ -2047,10 +2085,10 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="T47" t="b">
         <v>1</v>
@@ -2061,7 +2099,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="H48" t="s">
         <v>249</v>
@@ -2075,10 +2113,10 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="T49" t="b">
         <v>1</v>
@@ -2086,30 +2124,33 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
-      </c>
-      <c r="T50" t="b">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="K50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50" t="s">
+        <v>196</v>
+      </c>
+      <c r="M50" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>251</v>
-      </c>
-      <c r="H51" t="s">
-        <v>252</v>
-      </c>
-      <c r="T51" t="b">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
@@ -2117,10 +2158,10 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="T52" t="b">
         <v>1</v>
@@ -2131,10 +2172,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="T53" t="b">
         <v>1</v>
@@ -2142,33 +2183,30 @@
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="H54" t="s">
-        <v>89</v>
-      </c>
-      <c r="K54" t="s">
-        <v>153</v>
-      </c>
-      <c r="L54" t="s">
-        <v>201</v>
-      </c>
-      <c r="M54" t="s">
-        <v>202</v>
+        <v>244</v>
+      </c>
+      <c r="T54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>145</v>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s">
+        <v>84</v>
+      </c>
+      <c r="T55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
@@ -2176,10 +2214,10 @@
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="H56" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="T56" t="b">
         <v>1</v>
@@ -2190,10 +2228,10 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="T57" t="b">
         <v>1</v>
@@ -2204,7 +2242,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="H58" t="s">
         <v>249</v>
@@ -2218,10 +2256,10 @@
         <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="T59" t="b">
         <v>1</v>
@@ -2229,347 +2267,317 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="E60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" t="s">
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H60" t="s">
-        <v>250</v>
-      </c>
-      <c r="T60" t="b">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="K60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" t="s">
+        <v>193</v>
+      </c>
+      <c r="M60" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>251</v>
-      </c>
-      <c r="H61" t="s">
-        <v>252</v>
-      </c>
-      <c r="T61" t="b">
-        <v>1</v>
+      <c r="B61" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>253</v>
-      </c>
-      <c r="H62" t="s">
-        <v>254</v>
-      </c>
-      <c r="T62" t="b">
-        <v>1</v>
+      <c r="B62" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>208</v>
-      </c>
-      <c r="H63" t="s">
-        <v>209</v>
-      </c>
-      <c r="T63" t="b">
-        <v>1</v>
+      <c r="B63" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" t="s">
-        <v>146</v>
-      </c>
-      <c r="G64" t="s">
-        <v>192</v>
-      </c>
-      <c r="H64" t="s">
-        <v>193</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
         <v>154</v>
-      </c>
-      <c r="L64" t="s">
-        <v>198</v>
-      </c>
-      <c r="M64" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>38</v>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66" t="s">
+        <v>259</v>
+      </c>
+      <c r="T66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>113</v>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" t="s">
+        <v>99</v>
+      </c>
+      <c r="K67" t="s">
+        <v>255</v>
+      </c>
+      <c r="N67" t="s">
+        <v>256</v>
+      </c>
+      <c r="O67" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" t="s">
+        <v>242</v>
+      </c>
+      <c r="H68" t="s">
+        <v>243</v>
+      </c>
+      <c r="K68" t="s">
         <v>156</v>
+      </c>
+      <c r="L68" t="s">
+        <v>104</v>
+      </c>
+      <c r="M68" t="s">
+        <v>105</v>
+      </c>
+      <c r="N68" t="s">
+        <v>102</v>
+      </c>
+      <c r="O68" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>263</v>
-      </c>
-      <c r="H70" t="s">
-        <v>264</v>
-      </c>
-      <c r="T70" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
-      </c>
-      <c r="K71" t="s">
-        <v>260</v>
-      </c>
-      <c r="N71" t="s">
-        <v>261</v>
-      </c>
-      <c r="O71" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="T71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H72" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K72" t="s">
-        <v>158</v>
-      </c>
-      <c r="L72" t="s">
-        <v>106</v>
-      </c>
-      <c r="M72" t="s">
-        <v>107</v>
-      </c>
-      <c r="N72" t="s">
-        <v>104</v>
-      </c>
-      <c r="O72" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" t="s">
+        <v>101</v>
+      </c>
+      <c r="K74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>263</v>
-      </c>
-      <c r="H75" t="s">
-        <v>264</v>
-      </c>
-      <c r="T75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s">
-        <v>243</v>
-      </c>
-      <c r="H76" t="s">
-        <v>246</v>
-      </c>
-      <c r="K76" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>258</v>
+      </c>
+      <c r="H79" t="s">
+        <v>259</v>
+      </c>
+      <c r="T79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>55</v>
       </c>
-      <c r="E78" t="s">
-        <v>215</v>
-      </c>
-      <c r="F78" t="s">
-        <v>214</v>
-      </c>
-      <c r="G78" t="s">
-        <v>102</v>
-      </c>
-      <c r="H78" t="s">
-        <v>103</v>
-      </c>
-      <c r="K78" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>38</v>
+      <c r="E80" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" t="s">
+        <v>110</v>
+      </c>
+      <c r="K80" t="s">
+        <v>166</v>
+      </c>
+      <c r="L80" t="s">
+        <v>198</v>
+      </c>
+      <c r="M80" t="s">
+        <v>199</v>
+      </c>
+      <c r="R80" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>35</v>
       </c>
-      <c r="G83" t="s">
-        <v>263</v>
-      </c>
-      <c r="H83" t="s">
-        <v>264</v>
-      </c>
-      <c r="T83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" t="s">
-        <v>265</v>
-      </c>
-      <c r="F84" t="s">
-        <v>165</v>
-      </c>
-      <c r="G84" t="s">
-        <v>111</v>
-      </c>
-      <c r="H84" t="s">
-        <v>112</v>
-      </c>
-      <c r="K84" t="s">
-        <v>168</v>
-      </c>
-      <c r="L84" t="s">
-        <v>203</v>
-      </c>
-      <c r="M84" t="s">
-        <v>204</v>
-      </c>
-      <c r="R84" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>38</v>
+      <c r="G85" t="s">
+        <v>258</v>
+      </c>
+      <c r="H85" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>113</v>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s">
+        <v>253</v>
+      </c>
+      <c r="H86" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" t="s">
-        <v>263</v>
-      </c>
-      <c r="H89" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
@@ -2582,80 +2590,54 @@
       <c r="H90" t="s">
         <v>259</v>
       </c>
+      <c r="T90" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>38</v>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" t="s">
+        <v>113</v>
+      </c>
+      <c r="T91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>113</v>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
+        <v>114</v>
+      </c>
+      <c r="H92" t="s">
+        <v>115</v>
+      </c>
+      <c r="T92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>37</v>
+      <c r="D93" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93" t="s">
+        <v>191</v>
+      </c>
+      <c r="H93" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>35</v>
-      </c>
-      <c r="G94" t="s">
-        <v>263</v>
-      </c>
-      <c r="H94" t="s">
-        <v>264</v>
-      </c>
-      <c r="T94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H95" t="s">
-        <v>115</v>
-      </c>
-      <c r="T95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>35</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H96" t="s">
-        <v>117</v>
-      </c>
-      <c r="T96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
-      </c>
-      <c r="G97" t="s">
-        <v>196</v>
-      </c>
-      <c r="H97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="B94" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2670,7 +2652,7 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2698,32 +2680,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,47 +2714,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,47 +2763,47 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,228 +2814,228 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B14" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B15" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B17" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B18" s="12" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B19" s="12" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B20" s="12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B21" s="12" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B22" s="12" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B23" s="12" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B24" s="12" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B25" s="12" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B26" s="12" t="str">
         <f>"20"</f>
         <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B27" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,62 +3046,62 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B30" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B31" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B32" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3659,11 +3641,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C971334-BFF9-40FD-9069-4FCDFC8C151A}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,41 +3661,44 @@
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
         <v>176</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" t="s">
-        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -3722,24 +3707,27 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>182</v>
       </c>
-      <c r="G2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>184</v>
-      </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -3748,16 +3736,16 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
@@ -3848,7 +3836,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3864,9 +3852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:D42"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,7 +3974,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -4001,7 +3989,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -4016,7 +4004,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -4040,7 +4028,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -4095,7 +4083,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -4108,7 +4096,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>58</v>
@@ -4156,7 +4144,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -4168,7 +4156,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -4220,7 +4208,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
@@ -4234,7 +4222,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -4248,7 +4236,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -4269,7 +4257,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -4312,7 +4300,7 @@
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -4324,7 +4312,7 @@
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
@@ -4336,7 +4324,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
@@ -4349,10 +4337,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -4363,10 +4351,10 @@
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -4374,10 +4362,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -4387,7 +4375,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -4411,7 +4399,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -4423,7 +4411,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -4474,12 +4462,101 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB89F3-C914-432D-812B-F200FF4EED0F}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B0205-34E0-49A2-9F34-41FB96755089}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CAEB9F-9DA6-483C-AA9E-3497B6F8174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E5D1B-A8B0-4BE1-88CB-11E8B2505AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -4467,7 +4467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,8 +4507,9 @@
       <c r="D2" t="s">
         <v>279</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="E2" t="str">
+        <f>"FALSE"</f>
+        <v>FALSE</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4524,8 +4525,9 @@
       <c r="D3" t="s">
         <v>279</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="E3" t="str">
+        <f>"TRUE"</f>
+        <v>TRUE</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCIES/PREGNANCIES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E5D1B-A8B0-4BE1-88CB-11E8B2505AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659B43CF-4F02-4829-B0C2-0D19D80DF5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -821,9 +821,6 @@
     <t>Scar</t>
   </si>
   <si>
-    <t>Have scar, uncertain if BCG</t>
-  </si>
-  <si>
     <t>Tem cicatriz, não tenho certeza se BCG</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>Has scar, uncertain if BCG</t>
   </si>
 </sst>
 </file>
@@ -1421,9 +1421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,10 +1595,10 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" t="s">
         <v>271</v>
-      </c>
-      <c r="H8" t="s">
-        <v>272</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -2651,9 +2651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" t="s">
         <v>261</v>
-      </c>
-      <c r="D31" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>175</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>177</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3853,7 +3853,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4337,10 +4337,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
         <v>263</v>
-      </c>
-      <c r="B36" t="s">
-        <v>264</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -4351,10 +4351,10 @@
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" t="s">
         <v>266</v>
-      </c>
-      <c r="B38" t="s">
-        <v>267</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -4465,7 +4465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB89F3-C914-432D-812B-F200FF4EED0F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
@@ -4479,13 +4479,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>8</v>
@@ -4496,16 +4496,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" t="s">
         <v>276</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>277</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>278</v>
-      </c>
-      <c r="D2" t="s">
-        <v>279</v>
       </c>
       <c r="E2" t="str">
         <f>"FALSE"</f>
@@ -4514,16 +4514,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
         <v>276</v>
       </c>
-      <c r="B3" t="s">
-        <v>277</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" t="str">
         <f>"TRUE"</f>
@@ -4532,19 +4532,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
         <v>276</v>
       </c>
-      <c r="B4" t="s">
-        <v>277</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
